--- a/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD/AUD_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="12720" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="15345" yWindow="-15" windowWidth="3870" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="105">
   <si>
     <t>BID</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>SyntheticQuotesTrigger</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -1336,6 +1342,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1353,12 +1365,6 @@
     </xf>
     <xf numFmtId="171" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1417,134 +1423,134 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.5003249319999998</v>
+        <v>2.0001111110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>1.9999999980000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
       <tp>
-        <v>2.5003249319999998</v>
+        <v>2.0001111110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
       <tp>
-        <v>2.5004011579999998</v>
+        <v>2.0001510929999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
       <tp>
-        <v>3.2130000000000001</v>
+        <v>2.6779999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>1.96</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X17" s="7"/>
       </tp>
       <tp>
-        <v>3.335</v>
+        <v>2.8130000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
       </tp>
       <tp>
-        <v>2.9380000000000002</v>
+        <v>2.39</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9735</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>2.5430000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9635</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
       <tp>
-        <v>2.63</v>
+        <v>2.08</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X30" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9925000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
       <tp>
-        <v>2.78</v>
+        <v>2.2400000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
       </tp>
       <tp>
-        <v>2.496</v>
+        <v>1.9825000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
       <tp>
-        <v>2.5350000000000001</v>
+        <v>1.958</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9975000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
       <tp>
-        <v>3.42</v>
+        <v>2.9079999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
       <tp>
-        <v>3.5030000000000001</v>
+        <v>3</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
       <tp>
-        <v>2.5099999999999998</v>
+        <v>1.9475</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
       <tp>
-        <v>2.5652938189999999</v>
+        <v>2.0004564629999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W29" s="7"/>
       </tp>
       <tp>
-        <v>2.5652938189999999</v>
+        <v>2.0004564629999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1553,42 +1559,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.1500000000000004</v>
+        <v>3.5350000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W43" s="7"/>
       </tp>
       <tp>
-        <v>4.0650000000000004</v>
+        <v>3.48</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W41" s="7"/>
       </tp>
       <tp>
-        <v>4.12</v>
+        <v>3.5180000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W42" s="7"/>
       </tp>
       <tp>
-        <v>3.5880000000000001</v>
+        <v>3.0950000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W38" s="7"/>
       </tp>
       <tp>
-        <v>3.7250000000000001</v>
+        <v>3.238</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W39" s="7"/>
       </tp>
       <tp>
-        <v>3.8849999999999998</v>
+        <v>3.38</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1597,121 +1603,121 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.5003249319999998</v>
+        <v>2.0001111110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W7" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>1.9999999980000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W9" s="7"/>
       </tp>
       <tp>
-        <v>2.5003249319999998</v>
+        <v>2.0001111110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W8" s="7"/>
       </tp>
       <tp>
-        <v>2.5004011579999998</v>
+        <v>2.0001510929999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W6" s="7"/>
       </tp>
       <tp>
-        <v>3.2130000000000001</v>
+        <v>2.6779999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W34" s="7"/>
       </tp>
       <tp>
-        <v>2.5</v>
+        <v>1.96</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W17" s="7"/>
       </tp>
       <tp>
-        <v>3.335</v>
+        <v>2.8130000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W35" s="7"/>
       </tp>
       <tp>
-        <v>2.9380000000000002</v>
+        <v>2.39</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W32" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9735</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W15" s="7"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>2.5430000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W33" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9635</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W16" s="7"/>
       </tp>
       <tp>
-        <v>2.63</v>
+        <v>2.08</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W30" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9925000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W13" s="7"/>
       </tp>
       <tp>
-        <v>2.78</v>
+        <v>2.2400000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W31" s="7"/>
       </tp>
       <tp>
-        <v>2.496</v>
+        <v>1.9825000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W14" s="7"/>
       </tp>
       <tp>
-        <v>2.5350000000000001</v>
+        <v>1.958</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W28" s="7"/>
       </tp>
       <tp>
-        <v>2.4975000000000001</v>
+        <v>1.9975000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W12" s="7"/>
       </tp>
       <tp>
-        <v>3.42</v>
+        <v>2.9079999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W36" s="7"/>
       </tp>
       <tp>
-        <v>3.5030000000000001</v>
+        <v>3</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W37" s="7"/>
       </tp>
       <tp>
-        <v>2.5099999999999998</v>
+        <v>1.9475</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W18" s="7"/>
@@ -1719,42 +1725,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.5880000000000001</v>
+        <v>3.0950000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
       <tp>
-        <v>3.7250000000000001</v>
+        <v>3.238</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X39" s="7"/>
       </tp>
       <tp>
-        <v>3.8849999999999998</v>
+        <v>3.38</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X40" s="7"/>
       </tp>
       <tp>
-        <v>4.0650000000000004</v>
+        <v>3.48</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X41" s="7"/>
       </tp>
       <tp>
-        <v>4.12</v>
+        <v>3.5180000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X42" s="7"/>
       </tp>
       <tp>
-        <v>4.1500000000000004</v>
+        <v>3.5350000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1763,145 +1769,145 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6774074149999998</v>
+        <v>2.263587727</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>2.6776999990000001</v>
+        <v>2.2639271750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC9" s="7"/>
       </tp>
       <tp>
-        <v>2.6774561029999999</v>
+        <v>2.2636437330000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC8" s="7"/>
       </tp>
       <tp>
-        <v>2.6773601060000001</v>
+        <v>2.2635412560000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>2.7088000000000001</v>
+        <v>2.2397261159999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>2.6962000000000002</v>
+        <v>2.247773461</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>2.7014</v>
+        <v>2.240154671</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>2.6777999989999999</v>
+        <v>2.2639082260000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC10" s="7"/>
       </tp>
       <tp>
-        <v>2.6849000009999999</v>
+        <v>2.260937888</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>2.6781999999999999</v>
+        <v>2.2638533560000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC11" s="7"/>
       </tp>
       <tp>
-        <v>2.6897000000000002</v>
+        <v>2.2536543230000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>2.6798000000000002</v>
+        <v>2.2637287990000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>4.1689271420000003</v>
+        <v>3.5512351680000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z41" s="7"/>
       </tp>
       <tp>
-        <v>4.2255079750000002</v>
+        <v>3.5906988930000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z42" s="7"/>
       </tp>
       <tp>
-        <v>4.2562987899999998</v>
+        <v>3.6079739650000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z43" s="7"/>
       </tp>
       <tp>
-        <v>3.82812391</v>
+        <v>3.3120358890000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z39" s="7"/>
       </tp>
       <tp>
-        <v>3.689009521</v>
+        <v>3.1701347870000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z38" s="7"/>
       </tp>
       <tp>
-        <v>3.9893551569999999</v>
+        <v>3.4538602110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z40" s="7"/>
       </tp>
       <tp>
-        <v>3.1281951609999998</v>
+        <v>2.562013082</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
       <tp>
-        <v>3.2820052199999998</v>
+        <v>2.7110411070000002</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>3.531205377</v>
+        <v>2.9717299810000002</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>2.69</v>
+        <v>2.145</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
       <tp>
-        <v>2.8075000000000001</v>
+        <v>2.2600000000000002</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
       <tp>
-        <v>2.9624999999999999</v>
+        <v>2.4125000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
@@ -1909,91 +1915,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.2831597180000003</v>
+        <v>3.6303461620000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB41" s="7"/>
       </tp>
       <tp>
-        <v>4.3413703760000004</v>
+        <v>3.6700333240000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB42" s="7"/>
       </tp>
       <tp>
-        <v>4.3711146239999996</v>
+        <v>3.6874076150000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB43" s="7"/>
       </tp>
       <tp>
-        <v>3.9388977810000001</v>
+        <v>3.389808178</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>3.7951823330000001</v>
+        <v>3.2484107780000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>4.1011476470000003</v>
+        <v>3.5324118410000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB40" s="7"/>
       </tp>
       <tp>
-        <v>2.591083077</v>
+        <v>2.028944488</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z27" s="7"/>
       </tp>
       <tp>
-        <v>3.0318673380000001</v>
+        <v>2.4681981480000004</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z32" s="7"/>
       </tp>
       <tp>
-        <v>3.1811557069999998</v>
+        <v>2.622840686</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z33" s="7"/>
       </tp>
       <tp>
-        <v>2.5878214129999999</v>
+        <v>2.0436093570000002</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z26" s="7"/>
       </tp>
       <tp>
-        <v>3.427775327</v>
+        <v>2.8898337250000004</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z35" s="7"/>
       </tp>
       <tp>
-        <v>2.6193883090000001</v>
+        <v>2.0265297879999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z28" s="7"/>
       </tp>
       <tp>
-        <v>2.7238859880000001</v>
+        <v>2.1523436820000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z30" s="7"/>
       </tp>
       <tp>
-        <v>2.8731960999999999</v>
+        <v>2.3130218770000002</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z31" s="7"/>
       </tp>
       <tp>
-        <v>2.5893380449999999</v>
+        <v>2.0829689830000002</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z25" s="7"/>
@@ -2001,171 +2007,169 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6217959309999999</v>
+        <v>2.2135252830000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA7" s="7"/>
       </tp>
       <tp>
-        <v>2.6222000030000001</v>
+        <v>2.212868549</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA9" s="7"/>
       </tp>
       <tp>
-        <v>2.621858005</v>
+        <v>2.2134423620000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA8" s="7"/>
       </tp>
       <tp>
-        <v>2.6217347279999998</v>
+        <v>2.213610385</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA6" s="7"/>
       </tp>
       <tp>
-        <v>2.6225000000000001</v>
+        <v>2.2118065499999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA10" s="7"/>
       </tp>
       <tp>
-        <v>2.6305999999999998</v>
+        <v>2.2022494450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA13" s="7"/>
       </tp>
       <tp>
-        <v>2.6231</v>
+        <v>2.2106781610000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA11" s="7"/>
       </tp>
       <tp>
-        <v>2.6356000000000002</v>
+        <v>2.1908457340000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA14" s="7"/>
       </tp>
       <tp>
-        <v>2.625</v>
+        <v>2.2090140380000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA12" s="7"/>
       </tp>
       <tp>
-        <v>3.2225000000000001</v>
+        <v>2.67</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
       <tp>
-        <v>3.38</v>
+        <v>2.8175000000000003</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>3.6349999999999998</v>
+        <v>3.0725000000000002</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>2.7604385850000002</v>
+        <v>2.2420684199999998</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>2.8872376449999999</v>
+        <v>2.373751097</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
       <tp>
-        <v>3.0508972679999999</v>
+        <v>2.5222573980000003</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.5960188870000001</v>
+        <v>2.1272805640000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y7" s="7"/>
       </tp>
       <tp>
-        <v>2.595700001</v>
+        <v>2.1247104510000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y9" s="7"/>
       </tp>
       <tp>
-        <v>2.5959913160000001</v>
+        <v>2.1269200320000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y8" s="7"/>
       </tp>
       <tp>
-        <v>2.5960500550000001</v>
+        <v>2.1276424199999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y6" s="7"/>
       </tp>
       <tp>
-        <v>2.5948000000000002</v>
+        <v>2.1219390680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y10" s="7"/>
       </tp>
       <tp>
-        <v>2.5941999999999998</v>
+        <v>2.1192550510000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y11" s="7"/>
       </tp>
       <tp>
-        <v>2.5941999999999998</v>
+        <v>2.1148010859999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y12" s="7"/>
       </tp>
       <tp>
-        <v>4.3650000000000002</v>
+        <v>3.7025000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD41" s="7"/>
       </tp>
       <tp>
-        <v>4.4175000000000004</v>
+        <v>3.7375000000000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD42" s="7"/>
       </tp>
       <tp>
-        <v>4.4375</v>
+        <v>3.75</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD43" s="7"/>
       </tp>
       <tp>
-        <v>4.0425000000000004</v>
+        <v>3.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>3.9</v>
+        <v>3.34</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>4.1950000000000003</v>
+        <v>3.61</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD40" s="7"/>
@@ -2173,37 +2177,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.6349999999999998</v>
+        <v>3.0725000000000002</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>3.38</v>
+        <v>2.8175000000000003</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>3.2225000000000001</v>
+        <v>2.67</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>3.0508972679999999</v>
+        <v>2.5222573980000003</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>2.8872376449999999</v>
+        <v>2.373751097</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>2.7604385850000002</v>
+        <v>2.2420684199999998</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
@@ -2211,55 +2215,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.591083077</v>
+        <v>2.028944488</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
       <tp>
-        <v>3.427775327</v>
+        <v>2.8898337250000004</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
       <tp>
-        <v>2.5878214129999999</v>
+        <v>2.0436093570000002</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
       <tp>
-        <v>3.1811557069999998</v>
+        <v>2.622840686</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
       <tp>
-        <v>3.0318673380000001</v>
+        <v>2.4681981480000004</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
       <tp>
-        <v>2.5893380449999999</v>
+        <v>2.0829689830000002</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y25" s="7"/>
       </tp>
       <tp>
-        <v>2.8731960999999999</v>
+        <v>2.3130218770000002</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
       <tp>
-        <v>2.7238859880000001</v>
+        <v>2.1523436820000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y30" s="7"/>
       </tp>
       <tp>
-        <v>2.6193883090000001</v>
+        <v>2.0265297879999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
@@ -2267,388 +2271,390 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.531205377</v>
+        <v>2.9717299810000002</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA35" s="7"/>
       </tp>
       <tp>
-        <v>3.2820052199999998</v>
+        <v>2.7110411070000002</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA33" s="7"/>
       </tp>
       <tp>
-        <v>3.1281951609999998</v>
+        <v>2.562013082</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA32" s="7"/>
       </tp>
       <tp>
-        <v>2.9624999999999999</v>
+        <v>2.4125000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA31" s="7"/>
       </tp>
       <tp>
-        <v>2.8075000000000001</v>
+        <v>2.2600000000000002</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA30" s="7"/>
       </tp>
       <tp>
-        <v>2.69</v>
+        <v>2.145</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA28" s="7"/>
       </tp>
       <tp>
-        <v>4.2831597180000003</v>
+        <v>3.6303461620000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA41" s="7"/>
       </tp>
       <tp>
-        <v>4.3413703760000004</v>
+        <v>3.6700333240000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA42" s="7"/>
       </tp>
       <tp>
-        <v>4.3711146239999996</v>
+        <v>3.6874076150000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA43" s="7"/>
       </tp>
       <tp>
-        <v>3.7951823330000001</v>
+        <v>3.2484107780000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA38" s="7"/>
       </tp>
       <tp>
-        <v>3.9388977810000001</v>
+        <v>3.389808178</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA39" s="7"/>
       </tp>
       <tp>
-        <v>4.1011476470000003</v>
+        <v>3.5324118410000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA40" s="7"/>
       </tp>
       <tp>
-        <v>4.1689271420000003</v>
+        <v>3.5512351680000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y41" s="7"/>
       </tp>
       <tp>
-        <v>4.2255079750000002</v>
+        <v>3.5906988930000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y42" s="7"/>
       </tp>
       <tp>
-        <v>4.2562987899999998</v>
+        <v>3.6079739650000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y43" s="7"/>
       </tp>
       <tp>
-        <v>3.689009521</v>
+        <v>3.1701347870000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
       <tp>
-        <v>3.82812391</v>
+        <v>3.3120358890000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y39" s="7"/>
       </tp>
       <tp>
-        <v>3.9893551569999999</v>
+        <v>3.4538602110000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y40" s="7"/>
       </tp>
       <tp>
-        <v>2.6774074149999998</v>
+        <v>2.263587727</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD7" s="7"/>
       </tp>
       <tp>
-        <v>2.6776999990000001</v>
+        <v>2.2639271750000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>2.6774561029999999</v>
+        <v>2.2636437330000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>2.6773601060000001</v>
+        <v>2.2635412560000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD6" s="7"/>
       </tp>
       <tp>
-        <v>2.7088000000000001</v>
+        <v>2.2397261159999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD17" s="7"/>
       </tp>
       <tp>
-        <v>2.6962000000000002</v>
+        <v>2.247773461</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD15" s="7"/>
       </tp>
       <tp>
-        <v>2.7014</v>
+        <v>2.240154671</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD16" s="7"/>
       </tp>
       <tp>
-        <v>2.6777999989999999</v>
+        <v>2.2639082260000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>2.6849000009999999</v>
+        <v>2.260937888</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD13" s="7"/>
       </tp>
       <tp>
-        <v>2.6781999999999999</v>
+        <v>2.2638533560000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>2.6897000000000002</v>
+        <v>2.2536543230000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD14" s="7"/>
       </tp>
       <tp>
-        <v>2.6798000000000002</v>
+        <v>2.2637287990000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>4.3650000000000002</v>
+        <v>3.7025000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC41" s="7"/>
       </tp>
       <tp>
-        <v>4.4175000000000004</v>
+        <v>3.7375000000000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC42" s="7"/>
       </tp>
       <tp>
-        <v>4.4375</v>
+        <v>3.75</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC43" s="7"/>
       </tp>
       <tp>
-        <v>3.9</v>
+        <v>3.34</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>4.0425000000000004</v>
+        <v>3.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC39" s="7"/>
       </tp>
       <tp>
-        <v>4.1950000000000003</v>
+        <v>3.61</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC40" s="7"/>
       </tp>
       <tp>
-        <v>2.5960188870000001</v>
+        <v>2.1272805640000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z7" s="7"/>
       </tp>
       <tp>
-        <v>2.595700001</v>
+        <v>2.1247104510000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z9" s="7"/>
       </tp>
       <tp>
-        <v>2.5959913160000001</v>
+        <v>2.1269200320000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z8" s="7"/>
       </tp>
       <tp>
-        <v>2.5960500550000001</v>
+        <v>2.1276424199999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z6" s="7"/>
       </tp>
       <tp>
-        <v>2.5948000000000002</v>
+        <v>2.1219390680000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z10" s="7"/>
       </tp>
       <tp>
-        <v>2.5941999999999998</v>
+        <v>2.1192550510000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z11" s="7"/>
       </tp>
       <tp>
-        <v>2.5941999999999998</v>
+        <v>2.1148010859999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z12" s="7"/>
       </tp>
       <tp>
-        <v>2.6217959309999999</v>
+        <v>2.2135252830000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>2.6222000030000001</v>
+        <v>2.212868549</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB9" s="7"/>
       </tp>
       <tp>
-        <v>2.621858005</v>
+        <v>2.2134423620000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB8" s="7"/>
       </tp>
       <tp>
-        <v>2.6217347279999998</v>
+        <v>2.213610385</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>2.6225000000000001</v>
+        <v>2.2118065499999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB10" s="7"/>
       </tp>
       <tp>
-        <v>2.6305999999999998</v>
+        <v>2.2022494450000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>2.6231</v>
+        <v>2.2106781610000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB11" s="7"/>
       </tp>
       <tp>
-        <v>2.6356000000000002</v>
+        <v>2.1908457340000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>2.625</v>
+        <v>2.2090140380000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>97.054231165999994</v>
+        <v>97.840956979000012</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB22" s="7"/>
+      </tp>
+      <tp>
+        <v>97.736960541000002</v>
+        <stp/>
+        <stp>_x0007_AUD3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB23" s="7"/>
+      </tp>
+      <tp>
+        <v>97.835000000000008</v>
+        <stp/>
+        <stp>_x0007_AUD3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB19" s="7"/>
+      </tp>
+      <tp>
+        <v>97.875</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB21" s="7"/>
+      </tp>
+      <tp>
+        <v>97.625344307000006</v>
+        <stp/>
+        <stp>_x0007_AUD3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB24" s="7"/>
       </tp>
       <tp>
-        <v>97.314999999999998</v>
+        <v>97.88</v>
         <stp/>
-        <stp>_x0007_AUD3MH5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0007_AUD3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB20" s="7"/>
       </tp>
       <tp>
-        <v>97.226896873000001</v>
+        <v>97.88</v>
         <stp/>
-        <stp>_x0007_AUD3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB21" s="7"/>
+        <stp>_x0007_AUD3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA20" s="7"/>
       </tp>
       <tp>
-        <v>97.344999999999999</v>
+        <v>97.625344307000006</v>
         <stp/>
-        <stp>_x0007_AUD3MZ4_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB19" s="7"/>
+        <stp>_x0007_AUD3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA24" s="7"/>
       </tp>
       <tp>
-        <v>97.121854310000003</v>
+        <v>97.875</v>
         <stp/>
-        <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB23" s="7"/>
+        <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA21" s="7"/>
       </tp>
       <tp>
-        <v>97.172524311999993</v>
+        <v>97.840956979000012</v>
         <stp/>
-        <stp>_x0007_AUD3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB22" s="7"/>
-      </tp>
-      <tp>
-        <v>97.172524311999993</v>
-        <stp/>
-        <stp>_x0007_AUD3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA22" s="7"/>
       </tp>
       <tp>
-        <v>97.121854310000003</v>
+        <v>97.835000000000008</v>
         <stp/>
-        <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA23" s="7"/>
-      </tp>
-      <tp>
-        <v>97.344999999999999</v>
-        <stp/>
-        <stp>_x0007_AUD3MZ4_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0007_AUD3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA19" s="7"/>
       </tp>
       <tp>
-        <v>97.314999999999998</v>
+        <v>97.736960541000002</v>
         <stp/>
-        <stp>_x0007_AUD3MH5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA20" s="7"/>
-      </tp>
-      <tp>
-        <v>97.054231165999994</v>
-        <stp/>
-        <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA24" s="7"/>
-      </tp>
-      <tp>
-        <v>97.226896873000001</v>
-        <stp/>
-        <stp>_x0007_AUD3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AA21" s="7"/>
+        <stp>_x0007_AUD3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AA23" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2661,18 +2667,17 @@
     <sheetNames>
       <sheetName val="General Settings"/>
       <sheetName val="BBSW"/>
-      <sheetName val="BBSWSwapForBasisCalc"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
       <sheetName val="OIS"/>
       <sheetName val="MT_OIS"/>
-      <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Futures1M"/>
       <sheetName val="Futures3M"/>
-      <sheetName val="FuturesHWConvAdj"/>
       <sheetName val="Swap3M"/>
       <sheetName val="Swap6M"/>
       <sheetName val="BasisSwap1M3M"/>
       <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BBSWSwapForBasisCalc"/>
+      <sheetName val="FuturesHWConvAdj"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$7"/>
@@ -2681,7 +2686,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>8</v>
+            <v>60</v>
           </cell>
         </row>
       </sheetData>
@@ -2695,14 +2700,14 @@
       <sheetData sheetId="2">
         <row r="7">
           <cell r="D7" t="str">
-            <v>3M</v>
+            <v>D</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="7">
           <cell r="D7" t="str">
-            <v>AUDOIS3W_Quote</v>
+            <v>x6F</v>
           </cell>
         </row>
       </sheetData>
@@ -2716,60 +2721,53 @@
       <sheetData sheetId="5">
         <row r="7">
           <cell r="D7" t="str">
-            <v>AUDSND_Quote#0000</v>
+            <v>3W</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="7">
           <cell r="D7" t="str">
-            <v>AUD3x6F_Quote</v>
+            <v>Q5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="7">
           <cell r="D7" t="str">
-            <v>G5</v>
+            <v>3AB</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="7">
           <cell r="D7" t="str">
-            <v>Z4</v>
+            <v>6AB</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3BR</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10">
         <row r="7">
           <cell r="D7" t="str">
-            <v>3AB</v>
+            <v>6BR</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="7">
           <cell r="D7" t="str">
-            <v>6AB</v>
+            <v>AudBBSWSwapForBasisCalc9M</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3BR</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6BR</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2780,66 +2778,48 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="General Settings"/>
-      <sheetName val="basis 3M"/>
+      <sheetName val="1MSynthDepo"/>
       <sheetName val="3MSynthDepo"/>
       <sheetName val="6MSynthDepo"/>
-      <sheetName val="1MSynthDepo"/>
       <sheetName val="Contribution"/>
+      <sheetName val="Delta 1M"/>
+      <sheetName val="Delta 3M"/>
+      <sheetName val="Delta 6M"/>
+      <sheetName val="6M BBSWSwapForBasisCalc"/>
       <sheetName val="1M BBSWSwapForBasisCalc"/>
-      <sheetName val="1M Swaps"/>
-      <sheetName val="6M BBSWSwapForBasisCalc"/>
-      <sheetName val="6M Swaps"/>
     </sheetNames>
     <definedNames>
-      <definedName name="TriggerCounter" refersTo="='General Settings'!$J$22"/>
+      <definedName name="TriggerCounter" refersTo="='General Settings'!$I$21"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="22">
-          <cell r="J22">
-            <v>9</v>
+        <row r="21">
+          <cell r="I21">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="22">
-          <cell r="J22">
-            <v>8.7671232876712329E-2</v>
+      <sheetData sheetId="1">
+        <row r="21">
+          <cell r="I21">
+            <v>1.9830775658463886E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="22">
-          <cell r="J22">
-            <v>8.7671232876712329E-2</v>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>AudBBSWSwapForBasisCalc16Y</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
-        <row r="22">
-          <cell r="J22">
-            <v>8.7671232876712329E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="22">
-          <cell r="J22">
-            <v>2.6847408946266721E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="22">
-          <cell r="J22" t="str">
-            <v>AUDQM3AB17Y_S1BR3BR_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3244,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="68">
-        <v>41905.407812500001</v>
+        <v>42136.697581018518</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
@@ -3277,7 +3257,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3310,7 +3290,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3343,7 +3323,7 @@
       </c>
       <c r="D7" s="69">
         <f>[2]!TriggerCounter</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="2"/>
@@ -3782,7 +3762,7 @@
       </c>
       <c r="D21" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="2"/>
@@ -6359,22 +6339,22 @@
       <c r="V4" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="171" t="s">
+      <c r="W4" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="171" t="s">
+      <c r="X4" s="166"/>
+      <c r="Y4" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="172"/>
-      <c r="AA4" s="171" t="s">
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="172"/>
-      <c r="AC4" s="171" t="s">
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="172"/>
+      <c r="AD4" s="166"/>
       <c r="AE4" s="41" t="s">
         <v>70</v>
       </c>
@@ -6521,7 +6501,7 @@
     <row r="6" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="167" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -6550,11 +6530,11 @@
       </c>
       <c r="K6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>2.500401157774057</v>
+        <v>2.0001511019915874</v>
       </c>
       <c r="L6" s="14">
         <f>K6</f>
-        <v>2.500401157774057</v>
+        <v>2.0001511019915874</v>
       </c>
       <c r="M6" s="122" t="str">
         <f t="shared" ref="M6:M12" si="0">Currency&amp;$M$4&amp;D6&amp;"="</f>
@@ -6562,11 +6542,11 @@
       </c>
       <c r="N6" s="123">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.5956907080857761</v>
+        <v>2.1171956381757449</v>
       </c>
       <c r="O6" s="123">
         <f>N6</f>
-        <v>2.5956907080857761</v>
+        <v>2.1171956381757449</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P14" si="1">Currency&amp;$P$4&amp;D6&amp;"="</f>
@@ -6574,11 +6554,11 @@
       </c>
       <c r="Q6" s="14">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.6210371948350004</v>
+        <v>2.2026937443966985</v>
       </c>
       <c r="R6" s="14">
         <f>Q6</f>
-        <v>2.6210371948350004</v>
+        <v>2.2026937443966985</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" ref="S6:S17" si="2">Currency&amp;$S$4&amp;D6&amp;"="</f>
@@ -6586,46 +6566,46 @@
       </c>
       <c r="T6" s="14">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.6771601653011254</v>
+        <v>2.2565312915547673</v>
       </c>
       <c r="U6" s="14">
         <f>T6</f>
-        <v>2.6771601653011254</v>
+        <v>2.2565312915547673</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,BID)-K6)</f>
-        <v>2.2594282000909516E-10</v>
+        <v>8.9915874745827296E-9</v>
       </c>
       <c r="X6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,ASK)-L6)</f>
-        <v>2.2594282000909516E-10</v>
+        <v>8.9915874745827296E-9</v>
       </c>
       <c r="Y6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>3.5934691422401244E-4</v>
+        <v>1.0446781824255069E-2</v>
       </c>
       <c r="Z6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>3.5934691422401244E-4</v>
+        <v>1.0446781824255069E-2</v>
       </c>
       <c r="AA6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,BID)-Q6)</f>
-        <v>6.9753316499943097E-4</v>
+        <v>1.0916640603301442E-2</v>
       </c>
       <c r="AB6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,ASK)-R6)</f>
-        <v>6.9753316499943097E-4</v>
+        <v>1.0916640603301442E-2</v>
       </c>
       <c r="AC6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>1.9994069887463439E-4</v>
+        <v>7.0099644452330523E-3</v>
       </c>
       <c r="AD6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>1.9994069887463439E-4</v>
+        <v>7.0099644452330523E-3</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>70</v>
@@ -6660,7 +6640,7 @@
     <row r="7" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="166"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="21" t="s">
         <v>95</v>
       </c>
@@ -6687,11 +6667,11 @@
       </c>
       <c r="K7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>2.5003249324340171</v>
+        <v>2.0001111196568111</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L8" si="3">K7</f>
-        <v>2.5003249324340171</v>
+        <v>2.0001111196568111</v>
       </c>
       <c r="M7" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6699,11 +6679,11 @@
       </c>
       <c r="N7" s="126">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.5956543764969924</v>
+        <v>2.1168950010165171</v>
       </c>
       <c r="O7" s="126">
         <f t="shared" ref="O7:O8" si="4">N7</f>
-        <v>2.5956543764969924</v>
+        <v>2.1168950010165171</v>
       </c>
       <c r="P7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6711,11 +6691,11 @@
       </c>
       <c r="Q7" s="16">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.6211097942790951</v>
+        <v>2.202663781853774</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" ref="R7:R8" si="5">Q7</f>
-        <v>2.6211097942790951</v>
+        <v>2.202663781853774</v>
       </c>
       <c r="S7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6723,46 +6703,46 @@
       </c>
       <c r="T7" s="16">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.6772074665179351</v>
+        <v>2.2566096923109908</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ref="U7:U8" si="6">T7</f>
-        <v>2.6772074665179351</v>
+        <v>2.2566096923109908</v>
       </c>
       <c r="V7" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,BID)-K7)</f>
-        <v>4.340172665706632E-10</v>
+        <v>8.6568108237372599E-9</v>
       </c>
       <c r="X7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,ASK)-L7)</f>
-        <v>4.340172665706632E-10</v>
+        <v>8.6568108237372599E-9</v>
       </c>
       <c r="Y7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>3.6451050300767562E-4</v>
+        <v>1.0385562983483254E-2</v>
       </c>
       <c r="Z7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>3.6451050300767562E-4</v>
+        <v>1.0385562983483254E-2</v>
       </c>
       <c r="AA7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,BID)-Q7)</f>
-        <v>6.8613672090478417E-4</v>
+        <v>1.0861501146226082E-2</v>
       </c>
       <c r="AB7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,ASK)-R7)</f>
-        <v>6.8613672090478417E-4</v>
+        <v>1.0861501146226082E-2</v>
       </c>
       <c r="AC7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>1.9994848206472682E-4</v>
+        <v>6.9780346890091494E-3</v>
       </c>
       <c r="AD7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>1.9994848206472682E-4</v>
+        <v>6.9780346890091494E-3</v>
       </c>
       <c r="AE7" s="41"/>
       <c r="AF7" s="2"/>
@@ -6795,7 +6775,7 @@
     <row r="8" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="166"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="21" t="s">
         <v>96</v>
       </c>
@@ -6822,11 +6802,11 @@
       </c>
       <c r="K8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>2.5003249324340171</v>
+        <v>2.0001111196568111</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>2.5003249324340171</v>
+        <v>2.0001111196568111</v>
       </c>
       <c r="M8" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6834,11 +6814,11 @@
       </c>
       <c r="N8" s="126">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.5956216182763114</v>
+        <v>2.1165959315332383</v>
       </c>
       <c r="O8" s="126">
         <f t="shared" si="4"/>
-        <v>2.5956216182763114</v>
+        <v>2.1165959315332383</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6846,11 +6826,11 @@
       </c>
       <c r="Q8" s="16">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.6211830361804189</v>
+        <v>2.2026357777602534</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="5"/>
-        <v>2.6211830361804189</v>
+        <v>2.2026357777602534</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6858,46 +6838,46 @@
       </c>
       <c r="T8" s="16">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.6772561454367905</v>
+        <v>2.2566897999798385</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="6"/>
-        <v>2.6772561454367905</v>
+        <v>2.2566897999798385</v>
       </c>
       <c r="V8" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,BID)-K8)</f>
-        <v>4.340172665706632E-10</v>
+        <v>8.6568108237372599E-9</v>
       </c>
       <c r="X8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,ASK)-L8)</f>
-        <v>4.340172665706632E-10</v>
+        <v>8.6568108237372599E-9</v>
       </c>
       <c r="Y8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,BID)-N8)</f>
-        <v>3.6969772368866671E-4</v>
+        <v>1.0324100466761799E-2</v>
       </c>
       <c r="Z8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,ASK)-O8)</f>
-        <v>3.6969772368866671E-4</v>
+        <v>1.0324100466761799E-2</v>
       </c>
       <c r="AA8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>6.7496881958106769E-4</v>
+        <v>1.0806584239746897E-2</v>
       </c>
       <c r="AB8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>6.7496881958106769E-4</v>
+        <v>1.0806584239746897E-2</v>
       </c>
       <c r="AC8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>1.9995756320945191E-4</v>
+        <v>6.9539330201617844E-3</v>
       </c>
       <c r="AD8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>1.9995756320945191E-4</v>
+        <v>6.9539330201617844E-3</v>
       </c>
       <c r="AE8" s="41"/>
       <c r="AF8" s="2"/>
@@ -6930,7 +6910,7 @@
     <row r="9" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="166"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="21" t="s">
         <v>49</v>
       </c>
@@ -6957,11 +6937,11 @@
       </c>
       <c r="K9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.499999999886549</v>
+        <v>2.0000000031379996</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L17" si="7">K9</f>
-        <v>2.499999999886549</v>
+        <v>2.0000000031379996</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6969,11 +6949,11 @@
       </c>
       <c r="N9" s="126">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.5953000010686358</v>
+        <v>2.114746645975345</v>
       </c>
       <c r="O9" s="126">
         <f t="shared" ref="O9:O12" si="8">N9</f>
-        <v>2.5953000010686358</v>
+        <v>2.114746645975345</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6981,11 +6961,11 @@
       </c>
       <c r="Q9" s="16">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.6216000015853522</v>
+        <v>2.2023992074699912</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" ref="R9:R14" si="9">Q9</f>
-        <v>2.6216000015853522</v>
+        <v>2.2023992074699912</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6993,46 +6973,46 @@
       </c>
       <c r="T9" s="16">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.677499999378306</v>
+        <v>2.2571107040510858</v>
       </c>
       <c r="U9" s="16">
         <f t="shared" ref="U9:U17" si="10">T9</f>
-        <v>2.677499999378306</v>
+        <v>2.2571107040510858</v>
       </c>
       <c r="V9" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,BID)-K9)</f>
-        <v>1.1345102635118565E-10</v>
+        <v>5.1379995813505275E-9</v>
       </c>
       <c r="X9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,ASK)-L9)</f>
-        <v>1.1345102635118565E-10</v>
+        <v>5.1379995813505275E-9</v>
       </c>
       <c r="Y9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,BID)-N9)</f>
-        <v>3.9999993136419221E-4</v>
+        <v>9.9638050246553256E-3</v>
       </c>
       <c r="Z9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,ASK)-O9)</f>
-        <v>3.9999993136419221E-4</v>
+        <v>9.9638050246553256E-3</v>
       </c>
       <c r="AA9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>6.0000141464788825E-4</v>
+        <v>1.046934153000878E-2</v>
       </c>
       <c r="AB9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>6.0000141464788825E-4</v>
+        <v>1.046934153000878E-2</v>
       </c>
       <c r="AC9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>1.9999962169414687E-4</v>
+        <v>6.8164709489142439E-3</v>
       </c>
       <c r="AD9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>1.9999962169414687E-4</v>
+        <v>6.8164709489142439E-3</v>
       </c>
       <c r="AE9" s="41" t="s">
         <v>70</v>
@@ -7067,7 +7047,7 @@
     <row r="10" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="166"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="21" t="s">
         <v>50</v>
       </c>
@@ -7096,11 +7076,11 @@
       </c>
       <c r="N10" s="126">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.5944000004588359</v>
+        <v>2.1123361943430736</v>
       </c>
       <c r="O10" s="126">
         <f t="shared" si="8"/>
-        <v>2.5944000004588359</v>
+        <v>2.1123361943430736</v>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7108,11 +7088,11 @@
       </c>
       <c r="Q10" s="16">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.6220000002570614</v>
+        <v>2.2017818903544466</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="9"/>
-        <v>2.6220000002570614</v>
+        <v>2.2017818903544466</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7120,11 +7100,11 @@
       </c>
       <c r="T10" s="16">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.6775999988314605</v>
+        <v>2.2572777614852657</v>
       </c>
       <c r="U10" s="16">
         <f t="shared" si="10"/>
-        <v>2.6775999988314605</v>
+        <v>2.2572777614852657</v>
       </c>
       <c r="V10" s="98" t="s">
         <v>70</v>
@@ -7133,27 +7113,27 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,BID)-N10)</f>
-        <v>3.9999954116431979E-4</v>
+        <v>9.6028736569264694E-3</v>
       </c>
       <c r="Z10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,ASK)-O10)</f>
-        <v>3.9999954116431979E-4</v>
+        <v>9.6028736569264694E-3</v>
       </c>
       <c r="AA10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>4.9999974293868377E-4</v>
+        <v>1.0024659645553324E-2</v>
       </c>
       <c r="AB10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>4.9999974293868377E-4</v>
+        <v>1.0024659645553324E-2</v>
       </c>
       <c r="AC10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>2.0000016853938263E-4</v>
+        <v>6.6304645147345909E-3</v>
       </c>
       <c r="AD10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>2.0000016853938263E-4</v>
+        <v>6.6304645147345909E-3</v>
       </c>
       <c r="AE10" s="41" t="s">
         <v>70</v>
@@ -7188,7 +7168,7 @@
     <row r="11" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="166"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="21" t="s">
         <v>51</v>
       </c>
@@ -7217,11 +7197,11 @@
       </c>
       <c r="N11" s="126">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.5938999999957875</v>
+        <v>2.1099528839829262</v>
       </c>
       <c r="O11" s="126">
         <f t="shared" si="8"/>
-        <v>2.5938999999957875</v>
+        <v>2.1099528839829262</v>
       </c>
       <c r="P11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7229,11 +7209,11 @@
       </c>
       <c r="Q11" s="16">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.622600000006734</v>
+        <v>2.2011223633656232</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="9"/>
-        <v>2.622600000006734</v>
+        <v>2.2011223633656232</v>
       </c>
       <c r="S11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7241,11 +7221,11 @@
       </c>
       <c r="T11" s="16">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.6780000000076924</v>
+        <v>2.2573240168286124</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="10"/>
-        <v>2.6780000000076924</v>
+        <v>2.2573240168286124</v>
       </c>
       <c r="V11" s="98" t="s">
         <v>70</v>
@@ -7254,27 +7234,27 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,BID)-N11)</f>
-        <v>3.0000000421237516E-4</v>
+        <v>9.3021670170738702E-3</v>
       </c>
       <c r="Z11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,ASK)-O11)</f>
-        <v>3.0000000421237516E-4</v>
+        <v>9.3021670170738702E-3</v>
       </c>
       <c r="AA11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>4.999999932659982E-4</v>
+        <v>9.5557976343769724E-3</v>
       </c>
       <c r="AB11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>4.999999932659982E-4</v>
+        <v>9.5557976343769724E-3</v>
       </c>
       <c r="AC11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>1.9999999230746468E-4</v>
+        <v>6.5293391713878712E-3</v>
       </c>
       <c r="AD11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>1.9999999230746468E-4</v>
+        <v>6.5293391713878712E-3</v>
       </c>
       <c r="AE11" s="41" t="s">
         <v>70</v>
@@ -7309,7 +7289,7 @@
     <row r="12" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="166"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="21" t="s">
         <v>52</v>
       </c>
@@ -7331,16 +7311,16 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D12&amp;"="</f>
+        <f t="shared" ref="J12:J18" si="11">Currency&amp;"ON"&amp;D12&amp;"="</f>
         <v>AUDON1MD=</v>
       </c>
       <c r="K12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>2.4975000002205121</v>
+        <v>1.9974999995644684</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="7"/>
-        <v>2.4975000002205121</v>
+        <v>1.9974999995644684</v>
       </c>
       <c r="M12" s="125" t="str">
         <f t="shared" si="0"/>
@@ -7348,11 +7328,11 @@
       </c>
       <c r="N12" s="126">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.5938999991624581</v>
+        <v>2.1060524321801743</v>
       </c>
       <c r="O12" s="126">
         <f t="shared" si="8"/>
-        <v>2.5938999991624581</v>
+        <v>2.1060524321801743</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7360,11 +7340,11 @@
       </c>
       <c r="Q12" s="16">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.6245000002434913</v>
+        <v>2.1999838624744035</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="9"/>
-        <v>2.6245000002434913</v>
+        <v>2.1999838624744035</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7372,46 +7352,46 @@
       </c>
       <c r="T12" s="16">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.679600000380058</v>
+        <v>2.2574252559036392</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="10"/>
-        <v>2.679600000380058</v>
+        <v>2.2574252559036392</v>
       </c>
       <c r="V12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,BID)-K12)</f>
-        <v>2.2051205306183874E-10</v>
+        <v>4.3553161077625191E-10</v>
       </c>
       <c r="X12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,ASK)-L12)</f>
-        <v>2.2051205306183874E-10</v>
+        <v>4.3553161077625191E-10</v>
       </c>
       <c r="Y12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>3.0000083754178064E-4</v>
+        <v>8.7486538198255914E-3</v>
       </c>
       <c r="Z12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>3.0000083754178064E-4</v>
+        <v>8.7486538198255914E-3</v>
       </c>
       <c r="AA12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>4.9999975650871775E-4</v>
+        <v>9.0301755255968175E-3</v>
       </c>
       <c r="AB12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>4.9999975650871775E-4</v>
+        <v>9.0301755255968175E-3</v>
       </c>
       <c r="AC12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>1.9999961994221493E-4</v>
+        <v>6.3035430963611638E-3</v>
       </c>
       <c r="AD12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>1.9999961994221493E-4</v>
+        <v>6.3035430963611638E-3</v>
       </c>
       <c r="AE12" s="41" t="s">
         <v>70</v>
@@ -7446,7 +7426,7 @@
     <row r="13" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="166"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="21" t="s">
         <v>53</v>
       </c>
@@ -7467,16 +7447,16 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D13&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON2MD=</v>
       </c>
       <c r="K13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>2.4975000004097905</v>
+        <v>1.9925000002474103</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="7"/>
-        <v>2.4975000004097905</v>
+        <v>1.9925000002474103</v>
       </c>
       <c r="M13" s="125"/>
       <c r="N13" s="126"/>
@@ -7487,11 +7467,11 @@
       </c>
       <c r="Q13" s="16">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.6303000003439703</v>
+        <v>2.1947102717034794</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="9"/>
-        <v>2.6303000003439703</v>
+        <v>2.1947102717034794</v>
       </c>
       <c r="S13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7499,40 +7479,40 @@
       </c>
       <c r="T13" s="16">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.6847000005392632</v>
+        <v>2.2551986181245223</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="10"/>
-        <v>2.6847000005392632</v>
+        <v>2.2551986181245223</v>
       </c>
       <c r="V13" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,BID)-K13)</f>
-        <v>4.0979042381650288E-10</v>
+        <v>2.4741009241324718E-10</v>
       </c>
       <c r="X13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,ASK)-L13)</f>
-        <v>4.0979042381650288E-10</v>
+        <v>2.4741009241324718E-10</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="Z13" s="127"/>
       <c r="AA13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,BID)-Q13)</f>
-        <v>2.9999965602955925E-4</v>
+        <v>7.5391732965206515E-3</v>
       </c>
       <c r="AB13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,ASK)-R13)</f>
-        <v>2.9999965602955925E-4</v>
+        <v>7.5391732965206515E-3</v>
       </c>
       <c r="AC13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>2.0000046073676003E-4</v>
+        <v>5.7392698754776816E-3</v>
       </c>
       <c r="AD13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>2.0000046073676003E-4</v>
+        <v>5.7392698754776816E-3</v>
       </c>
       <c r="AE13" s="41" t="s">
         <v>70</v>
@@ -7567,7 +7547,7 @@
     <row r="14" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="166"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="21" t="s">
         <v>54</v>
       </c>
@@ -7588,16 +7568,16 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D14&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON3MD=</v>
       </c>
       <c r="K14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>2.4960000003375509</v>
+        <v>1.982500000186425</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="7"/>
-        <v>2.4960000003375509</v>
+        <v>1.982500000186425</v>
       </c>
       <c r="M14" s="128"/>
       <c r="N14" s="129"/>
@@ -7608,11 +7588,11 @@
       </c>
       <c r="Q14" s="16">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.635400000261118</v>
+        <v>2.1847511478243424</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="9"/>
-        <v>2.635400000261118</v>
+        <v>2.1847511478243424</v>
       </c>
       <c r="S14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7620,40 +7600,40 @@
       </c>
       <c r="T14" s="16">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.6894999999999682</v>
+        <v>2.2485219814407484</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="10"/>
-        <v>2.6894999999999682</v>
+        <v>2.2485219814407484</v>
       </c>
       <c r="V14" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,BID)-K14)</f>
-        <v>3.3755087613940304E-10</v>
+        <v>1.8642487553677256E-10</v>
       </c>
       <c r="X14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,ASK)-L14)</f>
-        <v>3.3755087613940304E-10</v>
+        <v>1.8642487553677256E-10</v>
       </c>
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
       <c r="AA14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,BID)-Q14)</f>
-        <v>1.9999973888218392E-4</v>
+        <v>6.0945861756578346E-3</v>
       </c>
       <c r="AB14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,ASK)-R14)</f>
-        <v>1.9999973888218392E-4</v>
+        <v>6.0945861756578346E-3</v>
       </c>
       <c r="AC14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>2.000000000319524E-4</v>
+        <v>5.1323415592516852E-3</v>
       </c>
       <c r="AD14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>2.000000000319524E-4</v>
+        <v>5.1323415592516852E-3</v>
       </c>
       <c r="AE14" s="41" t="s">
         <v>70</v>
@@ -7688,7 +7668,7 @@
     <row r="15" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="166"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
@@ -7708,16 +7688,16 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D15&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON4MD=</v>
       </c>
       <c r="K15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>2.497500000255751</v>
+        <v>1.9735000001536809</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>2.497500000255751</v>
+        <v>1.9735000001536809</v>
       </c>
       <c r="M15" s="125"/>
       <c r="N15" s="126"/>
@@ -7731,22 +7711,22 @@
       </c>
       <c r="T15" s="16">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.6960000002661486</v>
+        <v>2.2431109450210389</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="10"/>
-        <v>2.6960000002661486</v>
+        <v>2.2431109450210389</v>
       </c>
       <c r="V15" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,BID)-K15)</f>
-        <v>2.5575097595265106E-10</v>
+        <v>1.5368084582689789E-10</v>
       </c>
       <c r="X15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,ASK)-L15)</f>
-        <v>2.5575097595265106E-10</v>
+        <v>1.5368084582689789E-10</v>
       </c>
       <c r="Y15" s="127"/>
       <c r="Z15" s="127"/>
@@ -7754,11 +7734,11 @@
       <c r="AB15" s="104"/>
       <c r="AC15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>1.9999973385154135E-4</v>
+        <v>4.6625159789610571E-3</v>
       </c>
       <c r="AD15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>1.9999973385154135E-4</v>
+        <v>4.6625159789610571E-3</v>
       </c>
       <c r="AE15" s="41" t="s">
         <v>70</v>
@@ -7793,7 +7773,7 @@
     <row r="16" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="166"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
@@ -7813,16 +7793,16 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D16&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON5MD=</v>
       </c>
       <c r="K16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>2.4975000001827889</v>
+        <v>1.963500000111559</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>2.4975000001827889</v>
+        <v>1.963500000111559</v>
       </c>
       <c r="M16" s="125"/>
       <c r="N16" s="126"/>
@@ -7836,22 +7816,22 @@
       </c>
       <c r="T16" s="16">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.701200000216109</v>
+        <v>2.2362350105273396</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="10"/>
-        <v>2.701200000216109</v>
+        <v>2.2362350105273396</v>
       </c>
       <c r="V16" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,BID)-K16)</f>
-        <v>1.8278889513112517E-10</v>
+        <v>1.1155898427261945E-10</v>
       </c>
       <c r="X16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,ASK)-L16)</f>
-        <v>1.8278889513112517E-10</v>
+        <v>1.1155898427261945E-10</v>
       </c>
       <c r="Y16" s="127"/>
       <c r="Z16" s="127"/>
@@ -7859,11 +7839,11 @@
       <c r="AB16" s="104"/>
       <c r="AC16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>1.9999978389106943E-4</v>
+        <v>3.9196604726603468E-3</v>
       </c>
       <c r="AD16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>1.9999978389106943E-4</v>
+        <v>3.9196604726603468E-3</v>
       </c>
       <c r="AE16" s="41" t="s">
         <v>70</v>
@@ -7898,7 +7878,7 @@
     <row r="17" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="166"/>
+      <c r="C17" s="168"/>
       <c r="D17" s="21" t="s">
         <v>57</v>
       </c>
@@ -7918,16 +7898,16 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D17&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON6MD=</v>
       </c>
       <c r="K17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>2.5000000001542211</v>
+        <v>1.9600000000998226</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>2.5000000001542211</v>
+        <v>1.9600000000998226</v>
       </c>
       <c r="M17" s="128"/>
       <c r="N17" s="129"/>
@@ -7941,22 +7921,22 @@
       </c>
       <c r="T17" s="16">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.7087000001765427</v>
+        <v>2.2363324900027806</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="10"/>
-        <v>2.7087000001765427</v>
+        <v>2.2363324900027806</v>
       </c>
       <c r="V17" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,BID)-K17)</f>
-        <v>1.542210803506805E-10</v>
+        <v>9.9822594634702E-11</v>
       </c>
       <c r="X17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,ASK)-L17)</f>
-        <v>1.542210803506805E-10</v>
+        <v>9.9822594634702E-11</v>
       </c>
       <c r="Y17" s="130"/>
       <c r="Z17" s="130"/>
@@ -7964,11 +7944,11 @@
       <c r="AB17" s="104"/>
       <c r="AC17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>9.9999823457430637E-5</v>
+        <v>3.3936259972193739E-3</v>
       </c>
       <c r="AD17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>9.9999823457430637E-5</v>
+        <v>3.3936259972193739E-3</v>
       </c>
       <c r="AE17" s="41" t="s">
         <v>70</v>
@@ -8003,7 +7983,7 @@
     <row r="18" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="167"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="22" t="s">
         <v>58</v>
       </c>
@@ -8022,16 +8002,16 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D18&amp;"="</f>
+        <f t="shared" si="11"/>
         <v>AUDON9MD=</v>
       </c>
       <c r="K18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>2.5100000000257969</v>
+        <v>1.947499999999996</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" ref="L18" si="11">K18</f>
-        <v>2.5100000000257969</v>
+        <f t="shared" ref="L18" si="12">K18</f>
+        <v>1.947499999999996</v>
       </c>
       <c r="M18" s="131"/>
       <c r="N18" s="132"/>
@@ -8047,11 +8027,11 @@
       </c>
       <c r="W18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,BID)-K18)</f>
-        <v>2.5797142200190137E-11</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="X18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,ASK)-L18)</f>
-        <v>2.5797142200190137E-11</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="Y18" s="133"/>
       <c r="Z18" s="133"/>
@@ -8094,15 +8074,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="121">
-        <f t="array" ref="B19:B24">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,A19:A24)</f>
-        <v>41990</v>
-      </c>
-      <c r="C19" s="168" t="s">
+        <f t="array" ref="B19:B24">_xll.qlASXNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,A19:A24)</f>
+        <v>42167</v>
+      </c>
+      <c r="C19" s="170" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="96" t="str">
-        <f>_xll.qlIMMcode(B19,Trigger)</f>
-        <v>Z4</v>
+        <f>_xll.qlASXcode(B19,Trigger)</f>
+        <v>M5</v>
       </c>
       <c r="E19" s="107" t="s">
         <v>70</v>
@@ -8125,16 +8105,16 @@
       <c r="N19" s="135"/>
       <c r="O19" s="135"/>
       <c r="P19" s="13" t="str">
-        <f t="shared" ref="P19:P24" si="12">Currency&amp;$P$4&amp;D19</f>
-        <v>AUD3MZ4</v>
+        <f t="shared" ref="P19:P24" si="13">Currency&amp;$P$4&amp;D19</f>
+        <v>AUD3MM5</v>
       </c>
       <c r="Q19" s="14">
         <f>'3M Pricing'!H19</f>
-        <v>97.345000000197544</v>
+        <v>97.835000000069556</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" ref="R19:R24" si="13">Q19</f>
-        <v>97.345000000197544</v>
+        <f t="shared" ref="R19:R24" si="14">Q19</f>
+        <v>97.835000000069556</v>
       </c>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -8148,11 +8128,11 @@
       <c r="Z19" s="136"/>
       <c r="AA19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,BID)-Q19)</f>
-        <v>1.9754509139602305E-10</v>
+        <v>6.9547922976198606E-11</v>
       </c>
       <c r="AB19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,ASK)-R19)</f>
-        <v>1.9754509139602305E-10</v>
+        <v>6.9547922976198606E-11</v>
       </c>
       <c r="AC19" s="102"/>
       <c r="AD19" s="102"/>
@@ -8191,12 +8171,12 @@
         <v>1</v>
       </c>
       <c r="B20" s="121">
-        <v>42081</v>
-      </c>
-      <c r="C20" s="169"/>
+        <v>42258</v>
+      </c>
+      <c r="C20" s="171"/>
       <c r="D20" s="97" t="str">
-        <f>_xll.qlIMMcode(B20,Trigger)</f>
-        <v>H5</v>
+        <f>_xll.qlASXcode(B20,Trigger)</f>
+        <v>U5</v>
       </c>
       <c r="E20" s="108" t="s">
         <v>70</v>
@@ -8219,16 +8199,16 @@
       <c r="N20" s="129"/>
       <c r="O20" s="129"/>
       <c r="P20" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v>AUD3MH5</v>
+        <f t="shared" si="13"/>
+        <v>AUD3MU5</v>
       </c>
       <c r="Q20" s="16">
         <f>'3M Pricing'!H20</f>
-        <v>97.315000000238356</v>
+        <v>97.880000000223305</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" si="13"/>
-        <v>97.315000000238356</v>
+        <f t="shared" si="14"/>
+        <v>97.880000000223305</v>
       </c>
       <c r="S20" s="103"/>
       <c r="T20" s="103"/>
@@ -8242,11 +8222,11 @@
       <c r="Z20" s="130"/>
       <c r="AA20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,BID)-Q20)</f>
-        <v>2.3835866613808321E-10</v>
+        <v>2.2330937099468429E-10</v>
       </c>
       <c r="AB20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,ASK)-R20)</f>
-        <v>2.3835866613808321E-10</v>
+        <v>2.2330937099468429E-10</v>
       </c>
       <c r="AC20" s="104"/>
       <c r="AD20" s="104"/>
@@ -8285,12 +8265,12 @@
         <v>1</v>
       </c>
       <c r="B21" s="121">
-        <v>42172</v>
-      </c>
-      <c r="C21" s="169"/>
+        <v>42349</v>
+      </c>
+      <c r="C21" s="171"/>
       <c r="D21" s="97" t="str">
-        <f>_xll.qlIMMcode(B21,Trigger)</f>
-        <v>M5</v>
+        <f>_xll.qlASXcode(B21,Trigger)</f>
+        <v>Z5</v>
       </c>
       <c r="E21" s="108" t="s">
         <v>70</v>
@@ -8313,16 +8293,16 @@
       <c r="N21" s="129"/>
       <c r="O21" s="129"/>
       <c r="P21" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v>AUD3MM5</v>
+        <f t="shared" si="13"/>
+        <v>AUD3MZ5</v>
       </c>
       <c r="Q21" s="16">
         <f>'3M Pricing'!H21</f>
-        <v>97.226698256193131</v>
+        <v>97.874999999999957</v>
       </c>
       <c r="R21" s="16">
-        <f t="shared" si="13"/>
-        <v>97.226698256193131</v>
+        <f t="shared" si="14"/>
+        <v>97.874999999999957</v>
       </c>
       <c r="S21" s="103"/>
       <c r="T21" s="103"/>
@@ -8336,11 +8316,11 @@
       <c r="Z21" s="130"/>
       <c r="AA21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,BID)-Q21)</f>
-        <v>1.986168068697225E-4</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="AB21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,ASK)-R21)</f>
-        <v>1.986168068697225E-4</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="AC21" s="104"/>
       <c r="AD21" s="104"/>
@@ -8379,12 +8359,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="121">
-        <v>42263</v>
-      </c>
-      <c r="C22" s="169"/>
+        <v>42440</v>
+      </c>
+      <c r="C22" s="171"/>
       <c r="D22" s="97" t="str">
-        <f>_xll.qlIMMcode(B22,Trigger)</f>
-        <v>U5</v>
+        <f>_xll.qlASXcode(B22,Trigger)</f>
+        <v>H6</v>
       </c>
       <c r="E22" s="108" t="s">
         <v>70</v>
@@ -8407,16 +8387,16 @@
       <c r="N22" s="129"/>
       <c r="O22" s="129"/>
       <c r="P22" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v>AUD3MU5</v>
+        <f t="shared" si="13"/>
+        <v>AUD3MH6</v>
       </c>
       <c r="Q22" s="16">
         <f>'3M Pricing'!H22</f>
-        <v>97.172385893332617</v>
+        <v>97.833655104418995</v>
       </c>
       <c r="R22" s="16">
-        <f t="shared" si="13"/>
-        <v>97.172385893332617</v>
+        <f t="shared" si="14"/>
+        <v>97.833655104418995</v>
       </c>
       <c r="S22" s="103"/>
       <c r="T22" s="103"/>
@@ -8430,11 +8410,11 @@
       <c r="Z22" s="130"/>
       <c r="AA22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,BID)-Q22)</f>
-        <v>1.3841866737607234E-4</v>
+        <v>7.3018745810173868E-3</v>
       </c>
       <c r="AB22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,ASK)-R22)</f>
-        <v>1.3841866737607234E-4</v>
+        <v>7.3018745810173868E-3</v>
       </c>
       <c r="AC22" s="104"/>
       <c r="AD22" s="104"/>
@@ -8473,12 +8453,12 @@
         <v>1</v>
       </c>
       <c r="B23" s="121">
-        <v>42354</v>
-      </c>
-      <c r="C23" s="169"/>
+        <v>42531</v>
+      </c>
+      <c r="C23" s="171"/>
       <c r="D23" s="97" t="str">
-        <f>_xll.qlIMMcode(B23,Trigger)</f>
-        <v>Z5</v>
+        <f>_xll.qlASXcode(B23,Trigger)</f>
+        <v>M6</v>
       </c>
       <c r="E23" s="108" t="s">
         <v>70</v>
@@ -8501,16 +8481,16 @@
       <c r="N23" s="129"/>
       <c r="O23" s="129"/>
       <c r="P23" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v>AUD3MZ5</v>
+        <f t="shared" si="13"/>
+        <v>AUD3MM6</v>
       </c>
       <c r="Q23" s="16">
         <f>'3M Pricing'!H23</f>
-        <v>97.121840874458982</v>
+        <v>97.737337286937702</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="13"/>
-        <v>97.121840874458982</v>
+        <f t="shared" si="14"/>
+        <v>97.737337286937702</v>
       </c>
       <c r="S23" s="103"/>
       <c r="T23" s="103"/>
@@ -8524,11 +8504,11 @@
       <c r="Z23" s="130"/>
       <c r="AA23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,BID)-Q23)</f>
-        <v>1.3435541021067365E-5</v>
+        <v>3.7674593770020692E-4</v>
       </c>
       <c r="AB23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,ASK)-R23)</f>
-        <v>1.3435541021067365E-5</v>
+        <v>3.7674593770020692E-4</v>
       </c>
       <c r="AC23" s="104"/>
       <c r="AD23" s="104"/>
@@ -8567,12 +8547,12 @@
         <v>1</v>
       </c>
       <c r="B24" s="121">
-        <v>42445</v>
-      </c>
-      <c r="C24" s="170"/>
+        <v>42622</v>
+      </c>
+      <c r="C24" s="172"/>
       <c r="D24" s="148" t="str">
-        <f>_xll.qlIMMcode(B24,Trigger)</f>
-        <v>H6</v>
+        <f>_xll.qlASXcode(B24,Trigger)</f>
+        <v>U6</v>
       </c>
       <c r="E24" s="109" t="s">
         <v>70</v>
@@ -8593,16 +8573,16 @@
       <c r="N24" s="132"/>
       <c r="O24" s="132"/>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>AUD3MH6</v>
+        <f t="shared" si="13"/>
+        <v>AUD3MU6</v>
       </c>
       <c r="Q24" s="18">
         <f>'3M Pricing'!H24</f>
-        <v>97.054287886406939</v>
+        <v>97.639755173888304</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="13"/>
-        <v>97.054287886406939</v>
+        <f t="shared" si="14"/>
+        <v>97.639755173888304</v>
       </c>
       <c r="S24" s="105"/>
       <c r="T24" s="105"/>
@@ -8616,11 +8596,11 @@
       <c r="Z24" s="137"/>
       <c r="AA24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,BID)-Q24)</f>
-        <v>5.6720406945487412E-5</v>
+        <v>1.4410866888297846E-2</v>
       </c>
       <c r="AB24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,ASK)-R24)</f>
-        <v>5.6720406945487412E-5</v>
+        <v>1.4410866888297846E-2</v>
       </c>
       <c r="AC24" s="106"/>
       <c r="AD24" s="106"/>
@@ -8657,7 +8637,7 @@
     <row r="25" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="165" t="s">
+      <c r="C25" s="167" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -8686,11 +8666,11 @@
       </c>
       <c r="N25" s="123">
         <f>'1M Pricing'!H25*100</f>
-        <v>2.5891239210207768</v>
+        <v>2.0767819881046132</v>
       </c>
       <c r="O25" s="123">
         <f>N25</f>
-        <v>2.5891239210207768</v>
+        <v>2.0767819881046132</v>
       </c>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
@@ -8705,11 +8685,11 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>2.1412397922304649E-4</v>
+        <v>6.186994895386988E-3</v>
       </c>
       <c r="Z25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>2.1412397922304649E-4</v>
+        <v>6.186994895386988E-3</v>
       </c>
       <c r="AA25" s="102"/>
       <c r="AB25" s="102"/>
@@ -8746,7 +8726,7 @@
     <row r="26" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="166"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="21" t="s">
         <v>14</v>
       </c>
@@ -8773,11 +8753,11 @@
       </c>
       <c r="N26" s="126">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.5877142129941277</v>
+        <v>2.040101299703311</v>
       </c>
       <c r="O26" s="126">
         <f>N26</f>
-        <v>2.5877142129941277</v>
+        <v>2.040101299703311</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="103"/>
@@ -8792,11 +8772,11 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>1.072000058721656E-4</v>
+        <v>3.5080572966892376E-3</v>
       </c>
       <c r="Z26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>1.072000058721656E-4</v>
+        <v>3.5080572966892376E-3</v>
       </c>
       <c r="AA26" s="104"/>
       <c r="AB26" s="104"/>
@@ -8833,7 +8813,7 @@
     <row r="27" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="166"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="21" t="s">
         <v>24</v>
       </c>
@@ -8860,11 +8840,11 @@
       </c>
       <c r="N27" s="126">
         <f>'1M Pricing'!H27*100</f>
-        <v>2.5910145780885738</v>
+        <v>2.0264170042589043</v>
       </c>
       <c r="O27" s="126">
         <f>N27</f>
-        <v>2.5910145780885738</v>
+        <v>2.0264170042589043</v>
       </c>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8879,11 +8859,11 @@
       <c r="X27" s="16"/>
       <c r="Y27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>6.8498911426129183E-5</v>
+        <v>2.5274837410957929E-3</v>
       </c>
       <c r="Z27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>6.8498911426129183E-5</v>
+        <v>2.5274837410957929E-3</v>
       </c>
       <c r="AA27" s="104"/>
       <c r="AB27" s="104"/>
@@ -8920,7 +8900,7 @@
     <row r="28" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="166"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="21" t="s">
         <v>25</v>
       </c>
@@ -8942,16 +8922,16 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D28&amp;"D"&amp;"="</f>
+        <f t="shared" ref="J28:J43" si="15">Currency&amp;"ON"&amp;D28&amp;"D"&amp;"="</f>
         <v>AUDON1YD=</v>
       </c>
       <c r="K28" s="16">
         <f>'ON Pricing'!H28*100</f>
-        <v>2.5350000000194575</v>
+        <v>1.9579999999999944</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" ref="L28:L43" si="14">K28</f>
-        <v>2.5350000000194575</v>
+        <f t="shared" ref="L28:L43" si="16">K28</f>
+        <v>1.9579999999999944</v>
       </c>
       <c r="M28" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D28&amp;"="</f>
@@ -8959,11 +8939,11 @@
       </c>
       <c r="N28" s="126">
         <f>'1M Pricing'!H28*100</f>
-        <v>2.6193883086106284</v>
+        <v>2.0265298354323633</v>
       </c>
       <c r="O28" s="126">
         <f>N28</f>
-        <v>2.6193883086106284</v>
+        <v>2.0265298354323633</v>
       </c>
       <c r="P28" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D28&amp;"="</f>
@@ -8971,11 +8951,11 @@
       </c>
       <c r="Q28" s="16">
         <f>'3M Pricing'!H28*100</f>
-        <v>2.6900000000000128</v>
+        <v>2.1449999999721938</v>
       </c>
       <c r="R28" s="16">
         <f>Q28</f>
-        <v>2.6900000000000128</v>
+        <v>2.1449999999721938</v>
       </c>
       <c r="S28" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D28&amp;"="</f>
@@ -8983,46 +8963,46 @@
       </c>
       <c r="T28" s="16">
         <f>'6M Pricing'!H28*100</f>
-        <v>2.7604410492454092</v>
+        <v>2.2420987069177567</v>
       </c>
       <c r="U28" s="16">
         <f>T28</f>
-        <v>2.7604410492454092</v>
+        <v>2.2420987069177567</v>
       </c>
       <c r="V28" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,BID)-K28)</f>
-        <v>1.9457324640370643E-11</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="X28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,ASK)-L28)</f>
-        <v>1.9457324640370643E-11</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="Y28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>3.8937164603680685E-10</v>
+        <v>4.743236337034773E-8</v>
       </c>
       <c r="Z28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>3.8937164603680685E-10</v>
+        <v>4.743236337034773E-8</v>
       </c>
       <c r="AA28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>1.2878587085651816E-14</v>
+        <v>2.7806201785551821E-11</v>
       </c>
       <c r="AB28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>1.2878587085651816E-14</v>
+        <v>2.7806201785551821E-11</v>
       </c>
       <c r="AC28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>2.4642454090617605E-6</v>
+        <v>3.0286917756860987E-5</v>
       </c>
       <c r="AD28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>2.4642454090617605E-6</v>
+        <v>3.0286917756860987E-5</v>
       </c>
       <c r="AE28" s="41" t="s">
         <v>70</v>
@@ -9057,7 +9037,7 @@
     <row r="29" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="166"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="21" t="s">
         <v>67</v>
       </c>
@@ -9076,16 +9056,16 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D29&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON18MD=</v>
       </c>
       <c r="K29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>2.5652938190301953</v>
+        <v>1.9999999999999918</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="14"/>
-        <v>2.5652938190301953</v>
+        <f t="shared" si="16"/>
+        <v>1.9999999999999918</v>
       </c>
       <c r="M29" s="125"/>
       <c r="N29" s="126"/>
@@ -9101,11 +9081,11 @@
       </c>
       <c r="W29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,BID)-K29)</f>
-        <v>3.0195401734545158E-11</v>
+        <v>4.5646300000812268E-4</v>
       </c>
       <c r="X29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,ASK)-L29)</f>
-        <v>3.0195401734545158E-11</v>
+        <v>4.5646300000812268E-4</v>
       </c>
       <c r="Y29" s="127"/>
       <c r="Z29" s="127"/>
@@ -9146,7 +9126,7 @@
     <row r="30" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="166"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="21" t="s">
         <v>26</v>
       </c>
@@ -9168,16 +9148,16 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D30&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON2YD=</v>
       </c>
       <c r="K30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>2.6300000000098471</v>
+        <v>2.0799999999999961</v>
       </c>
       <c r="L30" s="16">
-        <f t="shared" si="14"/>
-        <v>2.6300000000098471</v>
+        <f t="shared" si="16"/>
+        <v>2.0799999999999961</v>
       </c>
       <c r="M30" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D30&amp;"="</f>
@@ -9185,11 +9165,11 @@
       </c>
       <c r="N30" s="126">
         <f>'1M Pricing'!H30*100</f>
-        <v>2.7238859882185471</v>
+        <v>2.1523433942296393</v>
       </c>
       <c r="O30" s="126">
         <f>N30</f>
-        <v>2.7238859882185471</v>
+        <v>2.1523433942296393</v>
       </c>
       <c r="P30" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D30&amp;"="</f>
@@ -9197,11 +9177,11 @@
       </c>
       <c r="Q30" s="16">
         <f>'3M Pricing'!H30*100</f>
-        <v>2.807499999995442</v>
+        <v>2.2599999999711828</v>
       </c>
       <c r="R30" s="16">
         <f>Q30</f>
-        <v>2.807499999995442</v>
+        <v>2.2599999999711828</v>
       </c>
       <c r="S30" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D30&amp;"="</f>
@@ -9209,46 +9189,46 @@
       </c>
       <c r="T30" s="16">
         <f>'6M Pricing'!H30*100</f>
-        <v>2.8872386160509778</v>
+        <v>2.3737672332174942</v>
       </c>
       <c r="U30" s="16">
         <f>T30</f>
-        <v>2.8872386160509778</v>
+        <v>2.3737672332174942</v>
       </c>
       <c r="V30" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,BID)-K30)</f>
-        <v>9.8472341392152885E-12</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="X30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,ASK)-L30)</f>
-        <v>9.8472341392152885E-12</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="Y30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>2.1854695830825221E-10</v>
+        <v>2.8777036087390684E-7</v>
       </c>
       <c r="Z30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>2.1854695830825221E-10</v>
+        <v>2.8777036087390684E-7</v>
       </c>
       <c r="AA30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>4.5581316499010427E-12</v>
+        <v>2.8817392916380413E-11</v>
       </c>
       <c r="AB30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>4.5581316499010427E-12</v>
+        <v>2.8817392916380413E-11</v>
       </c>
       <c r="AC30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>9.7105097784933037E-7</v>
+        <v>1.6136217494189253E-5</v>
       </c>
       <c r="AD30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>9.7105097784933037E-7</v>
+        <v>1.6136217494189253E-5</v>
       </c>
       <c r="AE30" s="41" t="s">
         <v>70</v>
@@ -9283,7 +9263,7 @@
     <row r="31" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="166"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="21" t="s">
         <v>27</v>
       </c>
@@ -9305,16 +9285,16 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D31&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON3YD=</v>
       </c>
       <c r="K31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>2.780000000006754</v>
+        <v>2.2400000000000011</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="14"/>
-        <v>2.780000000006754</v>
+        <f t="shared" si="16"/>
+        <v>2.2400000000000011</v>
       </c>
       <c r="M31" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D31&amp;"="</f>
@@ -9322,11 +9302,11 @@
       </c>
       <c r="N31" s="126">
         <f>'1M Pricing'!H31*100</f>
-        <v>2.8731961004615467</v>
+        <v>2.3130219083190116</v>
       </c>
       <c r="O31" s="126">
         <f>N31</f>
-        <v>2.8731961004615467</v>
+        <v>2.3130219083190116</v>
       </c>
       <c r="P31" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D31&amp;"="</f>
@@ -9334,11 +9314,11 @@
       </c>
       <c r="Q31" s="16">
         <f>'3M Pricing'!H31*100</f>
-        <v>2.9625000000164636</v>
+        <v>2.4124999999965087</v>
       </c>
       <c r="R31" s="16">
         <f>Q31</f>
-        <v>2.9625000000164636</v>
+        <v>2.4124999999965087</v>
       </c>
       <c r="S31" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D31&amp;"="</f>
@@ -9346,46 +9326,46 @@
       </c>
       <c r="T31" s="16">
         <f>'6M Pricing'!H31*100</f>
-        <v>3.0508979250689485</v>
+        <v>2.5222678067579452</v>
       </c>
       <c r="U31" s="16">
         <f>T31</f>
-        <v>3.0508979250689485</v>
+        <v>2.5222678067579452</v>
       </c>
       <c r="V31" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,BID)-K31)</f>
-        <v>6.7541527926096023E-12</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="X31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,ASK)-L31)</f>
-        <v>6.7541527926096023E-12</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="Y31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>4.6154680077847843E-10</v>
+        <v>3.1319011384312034E-8</v>
       </c>
       <c r="Z31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>4.6154680077847843E-10</v>
+        <v>3.1319011384312034E-8</v>
       </c>
       <c r="AA31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>1.6463719276771371E-11</v>
+        <v>3.4914293678411923E-12</v>
       </c>
       <c r="AB31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>1.6463719276771371E-11</v>
+        <v>3.4914293678411923E-12</v>
       </c>
       <c r="AC31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>6.5706894858408305E-7</v>
+        <v>1.0408757944890823E-5</v>
       </c>
       <c r="AD31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>6.5706894858408305E-7</v>
+        <v>1.0408757944890823E-5</v>
       </c>
       <c r="AE31" s="41" t="s">
         <v>70</v>
@@ -9420,7 +9400,7 @@
     <row r="32" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="166"/>
+      <c r="C32" s="168"/>
       <c r="D32" s="21" t="s">
         <v>28</v>
       </c>
@@ -9442,16 +9422,16 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D32&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON4YD=</v>
       </c>
       <c r="K32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>2.9380000000050766</v>
+        <v>2.3899999999736559</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="14"/>
-        <v>2.9380000000050766</v>
+        <f t="shared" si="16"/>
+        <v>2.3899999999736559</v>
       </c>
       <c r="M32" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D32&amp;"="</f>
@@ -9459,11 +9439,11 @@
       </c>
       <c r="N32" s="126">
         <f>'1M Pricing'!H32*100</f>
-        <v>3.0318673375193956</v>
+        <v>2.4681980815037927</v>
       </c>
       <c r="O32" s="126">
         <f>N32</f>
-        <v>3.0318673375193956</v>
+        <v>2.4681980815037927</v>
       </c>
       <c r="P32" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D32&amp;"="</f>
@@ -9471,11 +9451,11 @@
       </c>
       <c r="Q32" s="16">
         <f>'3M Pricing'!H32*100</f>
-        <v>3.1281951613233652</v>
+        <v>2.5620130101907055</v>
       </c>
       <c r="R32" s="16">
         <f>Q32</f>
-        <v>3.1281951613233652</v>
+        <v>2.5620130101907055</v>
       </c>
       <c r="S32" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D32&amp;"="</f>
@@ -9483,46 +9463,46 @@
       </c>
       <c r="T32" s="16">
         <f>'6M Pricing'!H32*100</f>
-        <v>3.2225000000032562</v>
+        <v>2.6700000000002939</v>
       </c>
       <c r="U32" s="16">
         <f>T32</f>
-        <v>3.2225000000032562</v>
+        <v>2.6700000000002939</v>
       </c>
       <c r="V32" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,BID)-K32)</f>
-        <v>5.0763837577960658E-12</v>
+        <v>2.6344260106725415E-11</v>
       </c>
       <c r="X32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,ASK)-L32)</f>
-        <v>5.0763837577960658E-12</v>
+        <v>2.6344260106725415E-11</v>
       </c>
       <c r="Y32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>4.8060444512998401E-10</v>
+        <v>6.6496207651312034E-8</v>
       </c>
       <c r="Z32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>4.8060444512998401E-10</v>
+        <v>6.6496207651312034E-8</v>
       </c>
       <c r="AA32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>3.2336533450916249E-10</v>
+        <v>7.1809294510671862E-8</v>
       </c>
       <c r="AB32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>3.2336533450916249E-10</v>
+        <v>7.1809294510671862E-8</v>
       </c>
       <c r="AC32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>3.2560620866206591E-12</v>
+        <v>2.9398705692074145E-13</v>
       </c>
       <c r="AD32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>3.2560620866206591E-12</v>
+        <v>2.9398705692074145E-13</v>
       </c>
       <c r="AE32" s="41" t="s">
         <v>70</v>
@@ -9557,7 +9537,7 @@
     <row r="33" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="166"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="21" t="s">
         <v>29</v>
       </c>
@@ -9579,16 +9559,16 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D33&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON5YD=</v>
       </c>
       <c r="K33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>3.0899999999832999</v>
+        <v>2.5429999999836741</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="14"/>
-        <v>3.0899999999832999</v>
+        <f t="shared" si="16"/>
+        <v>2.5429999999836741</v>
       </c>
       <c r="M33" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D33&amp;"="</f>
@@ -9596,11 +9576,11 @@
       </c>
       <c r="N33" s="126">
         <f>'1M Pricing'!H33*100</f>
-        <v>3.1811557065218516</v>
+        <v>2.6228406503368582</v>
       </c>
       <c r="O33" s="126">
         <f>N33</f>
-        <v>3.1811557065218516</v>
+        <v>2.6228406503368582</v>
       </c>
       <c r="P33" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D33&amp;"="</f>
@@ -9608,11 +9588,11 @@
       </c>
       <c r="Q33" s="16">
         <f>'3M Pricing'!H33*100</f>
-        <v>3.2820052200943568</v>
+        <v>2.7110410622996031</v>
       </c>
       <c r="R33" s="16">
         <f>Q33</f>
-        <v>3.2820052200943568</v>
+        <v>2.7110410622996031</v>
       </c>
       <c r="S33" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D33&amp;"="</f>
@@ -9620,46 +9600,46 @@
       </c>
       <c r="T33" s="16">
         <f>'6M Pricing'!H33*100</f>
-        <v>3.3799999999517021</v>
+        <v>2.8175000000002672</v>
       </c>
       <c r="U33" s="16">
         <f>T33</f>
-        <v>3.3799999999517021</v>
+        <v>2.8175000000002672</v>
       </c>
       <c r="V33" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,BID)-K33)</f>
-        <v>1.6699974736411605E-11</v>
+        <v>1.6326051621717852E-11</v>
       </c>
       <c r="X33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,ASK)-L33)</f>
-        <v>1.6699974736411605E-11</v>
+        <v>1.6326051621717852E-11</v>
       </c>
       <c r="Y33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>4.7814818771030332E-10</v>
+        <v>3.566314177305685E-8</v>
       </c>
       <c r="Z33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>4.7814818771030332E-10</v>
+        <v>3.566314177305685E-8</v>
       </c>
       <c r="AA33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>9.4356966684472354E-11</v>
+        <v>4.4700397161534511E-8</v>
       </c>
       <c r="AB33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>9.4356966684472354E-11</v>
+        <v>4.4700397161534511E-8</v>
       </c>
       <c r="AC33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>4.829781019566326E-11</v>
+        <v>2.6689761511988763E-13</v>
       </c>
       <c r="AD33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>4.829781019566326E-11</v>
+        <v>2.6689761511988763E-13</v>
       </c>
       <c r="AE33" s="41" t="s">
         <v>70</v>
@@ -9694,7 +9674,7 @@
     <row r="34" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="166"/>
+      <c r="C34" s="168"/>
       <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
@@ -9713,16 +9693,16 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D34&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON6YD=</v>
       </c>
       <c r="K34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>3.2129999999896284</v>
+        <v>2.6779999999891393</v>
       </c>
       <c r="L34" s="16">
-        <f t="shared" si="14"/>
-        <v>3.2129999999896284</v>
+        <f t="shared" si="16"/>
+        <v>2.6779999999891393</v>
       </c>
       <c r="M34" s="125"/>
       <c r="N34" s="126"/>
@@ -9738,11 +9718,11 @@
       </c>
       <c r="W34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,BID)-K34)</f>
-        <v>1.0371703496048212E-11</v>
+        <v>1.0860645716093131E-11</v>
       </c>
       <c r="X34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,ASK)-L34)</f>
-        <v>1.0371703496048212E-11</v>
+        <v>1.0860645716093131E-11</v>
       </c>
       <c r="Y34" s="127"/>
       <c r="Z34" s="127"/>
@@ -9783,7 +9763,7 @@
     <row r="35" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="166"/>
+      <c r="C35" s="168"/>
       <c r="D35" s="21" t="s">
         <v>31</v>
       </c>
@@ -9805,16 +9785,16 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D35&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON7YD=</v>
       </c>
       <c r="K35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>3.3349999999933564</v>
+        <v>2.8129999999923778</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="14"/>
-        <v>3.3349999999933564</v>
+        <f t="shared" si="16"/>
+        <v>2.8129999999923778</v>
       </c>
       <c r="M35" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D35&amp;"="</f>
@@ -9822,11 +9802,11 @@
       </c>
       <c r="N35" s="126">
         <f>'1M Pricing'!H35*100</f>
-        <v>3.4277753270347713</v>
+        <v>2.8898336937756568</v>
       </c>
       <c r="O35" s="126">
         <f>N35</f>
-        <v>3.4277753270347713</v>
+        <v>2.8898336937756568</v>
       </c>
       <c r="P35" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D35&amp;"="</f>
@@ -9834,11 +9814,11 @@
       </c>
       <c r="Q35" s="16">
         <f>'3M Pricing'!H35*100</f>
-        <v>3.5312053773827774</v>
+        <v>2.9717299436776816</v>
       </c>
       <c r="R35" s="16">
         <f>Q35</f>
-        <v>3.5312053773827774</v>
+        <v>2.9717299436776816</v>
       </c>
       <c r="S35" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D35&amp;"="</f>
@@ -9846,46 +9826,46 @@
       </c>
       <c r="T35" s="16">
         <f>'6M Pricing'!H35*100</f>
-        <v>3.6350000000177456</v>
+        <v>3.0725000000002014</v>
       </c>
       <c r="U35" s="16">
         <f>T35</f>
-        <v>3.6350000000177456</v>
+        <v>3.0725000000002014</v>
       </c>
       <c r="V35" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,BID)-K35)</f>
-        <v>6.6435745793569367E-12</v>
+        <v>7.6223471978664747E-12</v>
       </c>
       <c r="X35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,ASK)-L35)</f>
-        <v>6.6435745793569367E-12</v>
+        <v>7.6223471978664747E-12</v>
       </c>
       <c r="Y35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>3.4771296952840203E-11</v>
+        <v>3.1224343555180667E-8</v>
       </c>
       <c r="Z35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>3.4771296952840203E-11</v>
+        <v>3.1224343555180667E-8</v>
       </c>
       <c r="AA35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>3.8277736535974327E-10</v>
+        <v>3.7322318569010804E-8</v>
       </c>
       <c r="AB35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>3.8277736535974327E-10</v>
+        <v>3.7322318569010804E-8</v>
       </c>
       <c r="AC35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>1.7745804825608502E-11</v>
+        <v>2.0117241206207837E-13</v>
       </c>
       <c r="AD35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>1.7745804825608502E-11</v>
+        <v>2.0117241206207837E-13</v>
       </c>
       <c r="AE35" s="41" t="s">
         <v>70</v>
@@ -9920,7 +9900,7 @@
     <row r="36" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="166"/>
+      <c r="C36" s="168"/>
       <c r="D36" s="21" t="s">
         <v>32</v>
       </c>
@@ -9939,16 +9919,16 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D36&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON8YD=</v>
       </c>
       <c r="K36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>3.419999999995599</v>
+        <v>2.9079999999944</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="14"/>
-        <v>3.419999999995599</v>
+        <f t="shared" si="16"/>
+        <v>2.9079999999944</v>
       </c>
       <c r="M36" s="125"/>
       <c r="N36" s="126"/>
@@ -9964,11 +9944,11 @@
       </c>
       <c r="W36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,BID)-K36)</f>
-        <v>4.4009240696141205E-12</v>
+        <v>5.5999649362092896E-12</v>
       </c>
       <c r="X36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,ASK)-L36)</f>
-        <v>4.4009240696141205E-12</v>
+        <v>5.5999649362092896E-12</v>
       </c>
       <c r="Y36" s="127"/>
       <c r="Z36" s="127"/>
@@ -10009,7 +9989,7 @@
     <row r="37" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="166"/>
+      <c r="C37" s="168"/>
       <c r="D37" s="21" t="s">
         <v>33</v>
       </c>
@@ -10028,16 +10008,16 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D37&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON9YD=</v>
       </c>
       <c r="K37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>3.5029999999971544</v>
+        <v>2.9999999999958162</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="14"/>
-        <v>3.5029999999971544</v>
+        <f t="shared" si="16"/>
+        <v>2.9999999999958162</v>
       </c>
       <c r="M37" s="125"/>
       <c r="N37" s="126"/>
@@ -10053,11 +10033,11 @@
       </c>
       <c r="W37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,BID)-K37)</f>
-        <v>2.8457236567192012E-12</v>
+        <v>4.1837644459974399E-12</v>
       </c>
       <c r="X37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,ASK)-L37)</f>
-        <v>2.8457236567192012E-12</v>
+        <v>4.1837644459974399E-12</v>
       </c>
       <c r="Y37" s="127"/>
       <c r="Z37" s="127"/>
@@ -10098,7 +10078,7 @@
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="166"/>
+      <c r="C38" s="168"/>
       <c r="D38" s="21" t="s">
         <v>34</v>
       </c>
@@ -10120,87 +10100,87 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D38&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON10YD=</v>
       </c>
       <c r="K38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>3.5879999999981824</v>
+        <v>3.0949999999967877</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="14"/>
-        <v>3.5879999999981824</v>
+        <f t="shared" si="16"/>
+        <v>3.0949999999967877</v>
       </c>
       <c r="M38" s="125" t="str">
-        <f t="shared" ref="M38:M43" si="15">Currency&amp;$M$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="M38:M43" si="17">Currency&amp;$M$4&amp;D38&amp;"="</f>
         <v>AUD1M10Y=</v>
       </c>
       <c r="N38" s="126">
         <f>'1M Pricing'!H38*100</f>
-        <v>3.689009520872085</v>
+        <v>3.1701347625361502</v>
       </c>
       <c r="O38" s="126">
-        <f t="shared" ref="O38:O43" si="16">N38</f>
-        <v>3.689009520872085</v>
+        <f t="shared" ref="O38:O43" si="18">N38</f>
+        <v>3.1701347625361502</v>
       </c>
       <c r="P38" s="15" t="str">
-        <f t="shared" ref="P38:P43" si="17">Currency&amp;$P$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="P38:P43" si="19">Currency&amp;$P$4&amp;D38&amp;"="</f>
         <v>AUD3M10Y=</v>
       </c>
       <c r="Q38" s="16">
         <f>'3M Pricing'!H38*100</f>
-        <v>3.7951823332616721</v>
+        <v>3.2484107479366378</v>
       </c>
       <c r="R38" s="16">
-        <f t="shared" ref="R38:R43" si="18">Q38</f>
-        <v>3.7951823332616721</v>
+        <f t="shared" ref="R38:R43" si="20">Q38</f>
+        <v>3.2484107479366378</v>
       </c>
       <c r="S38" s="15" t="str">
-        <f t="shared" ref="S38:S43" si="19">Currency&amp;$S$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="S38:S43" si="21">Currency&amp;$S$4&amp;D38&amp;"="</f>
         <v>AUD6M10Y=</v>
       </c>
       <c r="T38" s="16">
         <f>'6M Pricing'!H38*100</f>
-        <v>3.9000000000175339</v>
+        <v>3.339999999996361</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" ref="U38:U43" si="20">T38</f>
-        <v>3.9000000000175339</v>
+        <f t="shared" ref="U38:U43" si="22">T38</f>
+        <v>3.339999999996361</v>
       </c>
       <c r="V38" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,BID)-K38)</f>
-        <v>1.8176571359163063E-12</v>
+        <v>3.212541344055353E-12</v>
       </c>
       <c r="X38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,ASK)-L38)</f>
-        <v>1.8176571359163063E-12</v>
+        <v>3.212541344055353E-12</v>
       </c>
       <c r="Y38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>1.2791501191600219E-10</v>
+        <v>2.4463850056832825E-8</v>
       </c>
       <c r="Z38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>1.2791501191600219E-10</v>
+        <v>2.4463850056832825E-8</v>
       </c>
       <c r="AA38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>2.6167201738758195E-10</v>
+        <v>3.0063362466137278E-8</v>
       </c>
       <c r="AB38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>2.6167201738758195E-10</v>
+        <v>3.0063362466137278E-8</v>
       </c>
       <c r="AC38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>1.7533974272510022E-11</v>
+        <v>3.6388669855114131E-12</v>
       </c>
       <c r="AD38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>1.7533974272510022E-11</v>
+        <v>3.6388669855114131E-12</v>
       </c>
       <c r="AE38" s="41" t="s">
         <v>70</v>
@@ -10235,7 +10215,7 @@
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="166"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="21" t="s">
         <v>35</v>
       </c>
@@ -10257,87 +10237,87 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D39&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON12YD=</v>
       </c>
       <c r="K39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>3.7249999999987695</v>
+        <v>3.2380000000007145</v>
       </c>
       <c r="L39" s="16">
-        <f t="shared" si="14"/>
-        <v>3.7249999999987695</v>
+        <f t="shared" si="16"/>
+        <v>3.2380000000007145</v>
       </c>
       <c r="M39" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>AUD1M12Y=</v>
       </c>
       <c r="N39" s="126">
         <f>'1M Pricing'!H39*100</f>
-        <v>3.8281239098081219</v>
+        <v>3.312035867659433</v>
       </c>
       <c r="O39" s="126">
-        <f t="shared" si="16"/>
-        <v>3.8281239098081219</v>
+        <f t="shared" si="18"/>
+        <v>3.312035867659433</v>
       </c>
       <c r="P39" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>AUD3M12Y=</v>
       </c>
       <c r="Q39" s="16">
         <f>'3M Pricing'!H39*100</f>
-        <v>3.9388977810415158</v>
+        <v>3.3898081511269664</v>
       </c>
       <c r="R39" s="16">
-        <f t="shared" si="18"/>
-        <v>3.9388977810415158</v>
+        <f t="shared" si="20"/>
+        <v>3.3898081511269664</v>
       </c>
       <c r="S39" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>AUD6M12Y=</v>
       </c>
       <c r="T39" s="16">
         <f>'6M Pricing'!H39*100</f>
-        <v>4.0424999999994018</v>
+        <v>3.4749999999973338</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="20"/>
-        <v>4.0424999999994018</v>
+        <f t="shared" si="22"/>
+        <v>3.4749999999973338</v>
       </c>
       <c r="V39" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,BID)-K39)</f>
-        <v>1.2305712004945235E-12</v>
+        <v>7.1453953864875075E-13</v>
       </c>
       <c r="X39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,ASK)-L39)</f>
-        <v>1.2305712004945235E-12</v>
+        <v>7.1453953864875075E-13</v>
       </c>
       <c r="Y39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>1.918780689891264E-10</v>
+        <v>2.1340567091243656E-8</v>
       </c>
       <c r="Z39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>1.918780689891264E-10</v>
+        <v>2.1340567091243656E-8</v>
       </c>
       <c r="AA39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>4.1515679782833104E-11</v>
+        <v>2.6873033576180205E-8</v>
       </c>
       <c r="AB39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>4.1515679782833104E-11</v>
+        <v>2.6873033576180205E-8</v>
       </c>
       <c r="AC39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>5.9863225487788441E-13</v>
+        <v>2.6663116159397759E-12</v>
       </c>
       <c r="AD39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>5.9863225487788441E-13</v>
+        <v>2.6663116159397759E-12</v>
       </c>
       <c r="AE39" s="41" t="s">
         <v>70</v>
@@ -10372,7 +10352,7 @@
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="166"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="21" t="s">
         <v>36</v>
       </c>
@@ -10394,87 +10374,87 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D40&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON15YD=</v>
       </c>
       <c r="K40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>3.8849999999999989</v>
+        <v>3.3800000000001273</v>
       </c>
       <c r="L40" s="16">
-        <f t="shared" si="14"/>
-        <v>3.8849999999999989</v>
+        <f t="shared" si="16"/>
+        <v>3.3800000000001273</v>
       </c>
       <c r="M40" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>AUD1M15Y=</v>
       </c>
       <c r="N40" s="126">
         <f>'1M Pricing'!H40*100</f>
-        <v>3.9893551566755439</v>
+        <v>3.4538601927584303</v>
       </c>
       <c r="O40" s="126">
-        <f t="shared" si="16"/>
-        <v>3.9893551566755439</v>
+        <f t="shared" si="18"/>
+        <v>3.4538601927584303</v>
       </c>
       <c r="P40" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>AUD3M15Y=</v>
       </c>
       <c r="Q40" s="16">
         <f>'3M Pricing'!H40*100</f>
-        <v>4.1011476474981778</v>
+        <v>3.5324118173613814</v>
       </c>
       <c r="R40" s="16">
-        <f t="shared" si="18"/>
-        <v>4.1011476474981778</v>
+        <f t="shared" si="20"/>
+        <v>3.5324118173613814</v>
       </c>
       <c r="S40" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>AUD6M15Y=</v>
       </c>
       <c r="T40" s="16">
         <f>'6M Pricing'!H40*100</f>
-        <v>4.1950000000008263</v>
+        <v>3.6100000000001673</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="20"/>
-        <v>4.1950000000008263</v>
+        <f t="shared" si="22"/>
+        <v>3.6100000000001673</v>
       </c>
       <c r="V40" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,BID)-K40)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>1.2745360322696797E-13</v>
       </c>
       <c r="X40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,ASK)-L40)</f>
-        <v>8.8817841970012523E-16</v>
+        <v>1.2745360322696797E-13</v>
       </c>
       <c r="Y40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,BID)-N40)</f>
-        <v>3.2445601760855425E-10</v>
+        <v>1.8241570032273557E-8</v>
       </c>
       <c r="Z40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,ASK)-O40)</f>
-        <v>3.2445601760855425E-10</v>
+        <v>1.8241570032273557E-8</v>
       </c>
       <c r="AA40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,BID)-Q40)</f>
-        <v>4.9817749925296084E-10</v>
+        <v>2.3638618618093687E-8</v>
       </c>
       <c r="AB40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,ASK)-R40)</f>
-        <v>4.9817749925296084E-10</v>
+        <v>2.3638618618093687E-8</v>
       </c>
       <c r="AC40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>8.2600593032111647E-13</v>
+        <v>1.6742163211347361E-13</v>
       </c>
       <c r="AD40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>8.2600593032111647E-13</v>
+        <v>1.6742163211347361E-13</v>
       </c>
       <c r="AE40" s="41" t="s">
         <v>70</v>
@@ -10509,7 +10489,7 @@
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="166"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="21" t="s">
         <v>37</v>
       </c>
@@ -10531,87 +10511,87 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D41&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON20YD=</v>
       </c>
       <c r="K41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>4.0650000000058206</v>
+        <v>3.4799999999998112</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="14"/>
-        <v>4.0650000000058206</v>
+        <f t="shared" si="16"/>
+        <v>3.4799999999998112</v>
       </c>
       <c r="M41" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>AUD1M20Y=</v>
       </c>
       <c r="N41" s="126">
         <f>'1M Pricing'!H41*100</f>
-        <v>4.1689271416802631</v>
+        <v>3.5512351522428194</v>
       </c>
       <c r="O41" s="126">
-        <f t="shared" si="16"/>
-        <v>4.1689271416802631</v>
+        <f t="shared" si="18"/>
+        <v>3.5512351522428194</v>
       </c>
       <c r="P41" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>AUD3M20Y=</v>
       </c>
       <c r="Q41" s="16">
         <f>'3M Pricing'!H41*100</f>
-        <v>4.2831597175156064</v>
+        <v>3.6303461428665988</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="18"/>
-        <v>4.2831597175156064</v>
+        <f t="shared" si="20"/>
+        <v>3.6303461428665988</v>
       </c>
       <c r="S41" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>AUD6M20Y=</v>
       </c>
       <c r="T41" s="16">
         <f>'6M Pricing'!H41*100</f>
-        <v>4.3650000000007019</v>
+        <v>3.7024999999975781</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="20"/>
-        <v>4.3650000000007019</v>
+        <f t="shared" si="22"/>
+        <v>3.7024999999975781</v>
       </c>
       <c r="V41" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,BID)-K41)</f>
-        <v>5.8202331842949206E-12</v>
+        <v>1.8873791418627661E-13</v>
       </c>
       <c r="X41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,ASK)-L41)</f>
-        <v>5.8202331842949206E-12</v>
+        <v>1.8873791418627661E-13</v>
       </c>
       <c r="Y41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,BID)-N41)</f>
-        <v>3.1973712566468748E-10</v>
+        <v>1.5757180893416489E-8</v>
       </c>
       <c r="Z41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,ASK)-O41)</f>
-        <v>3.1973712566468748E-10</v>
+        <v>1.5757180893416489E-8</v>
       </c>
       <c r="AA41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,BID)-Q41)</f>
-        <v>4.843938583576346E-10</v>
+        <v>1.9133401529813909E-8</v>
       </c>
       <c r="AB41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,ASK)-R41)</f>
-        <v>4.843938583576346E-10</v>
+        <v>1.9133401529813909E-8</v>
       </c>
       <c r="AC41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>7.0166095156309893E-13</v>
+        <v>2.4220625505222415E-12</v>
       </c>
       <c r="AD41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>7.0166095156309893E-13</v>
+        <v>2.4220625505222415E-12</v>
       </c>
       <c r="AE41" s="41" t="s">
         <v>70</v>
@@ -10646,7 +10626,7 @@
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="166"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="21" t="s">
         <v>38</v>
       </c>
@@ -10668,87 +10648,87 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="15" t="str">
-        <f>Currency&amp;"ON"&amp;D42&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON25YD=</v>
       </c>
       <c r="K42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>4.1200000000056383</v>
+        <v>3.5179999999962503</v>
       </c>
       <c r="L42" s="16">
-        <f t="shared" si="14"/>
-        <v>4.1200000000056383</v>
+        <f t="shared" si="16"/>
+        <v>3.5179999999962503</v>
       </c>
       <c r="M42" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>AUD1M25Y=</v>
       </c>
       <c r="N42" s="126">
         <f>'1M Pricing'!H42*100</f>
-        <v>4.2255079750885631</v>
+        <v>3.5906988798055859</v>
       </c>
       <c r="O42" s="126">
-        <f t="shared" si="16"/>
-        <v>4.2255079750885631</v>
+        <f t="shared" si="18"/>
+        <v>3.5906988798055859</v>
       </c>
       <c r="P42" s="15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>AUD3M25Y=</v>
       </c>
       <c r="Q42" s="16">
         <f>'3M Pricing'!H42*100</f>
-        <v>4.3413703762302243</v>
+        <v>3.6700333068239415</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="18"/>
-        <v>4.3413703762302243</v>
+        <f t="shared" si="20"/>
+        <v>3.6700333068239415</v>
       </c>
       <c r="S42" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>AUD6M25Y=</v>
       </c>
       <c r="T42" s="16">
         <f>'6M Pricing'!H42*100</f>
-        <v>4.417499999997534</v>
+        <v>3.7374999999978993</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="20"/>
-        <v>4.417499999997534</v>
+        <f t="shared" si="22"/>
+        <v>3.7374999999978993</v>
       </c>
       <c r="V42" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,BID)-K42)</f>
-        <v>5.638156608256395E-12</v>
+        <v>3.7498892879739287E-12</v>
       </c>
       <c r="X42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,ASK)-L42)</f>
-        <v>5.638156608256395E-12</v>
+        <v>3.7498892879739287E-12</v>
       </c>
       <c r="Y42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,BID)-N42)</f>
-        <v>8.8562934763558587E-11</v>
+        <v>1.3194414449912983E-8</v>
       </c>
       <c r="Z42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,ASK)-O42)</f>
-        <v>8.8562934763558587E-11</v>
+        <v>1.3194414449912983E-8</v>
       </c>
       <c r="AA42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,BID)-Q42)</f>
-        <v>2.3022383999204976E-10</v>
+        <v>1.7176058797474525E-8</v>
       </c>
       <c r="AB42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,ASK)-R42)</f>
-        <v>2.3022383999204976E-10</v>
+        <v>1.7176058797474525E-8</v>
       </c>
       <c r="AC42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>2.4664714715072478E-12</v>
+        <v>2.1009860518006462E-12</v>
       </c>
       <c r="AD42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>2.4664714715072478E-12</v>
+        <v>2.1009860518006462E-12</v>
       </c>
       <c r="AE42" s="41" t="s">
         <v>70</v>
@@ -10783,7 +10763,7 @@
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="167"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="22" t="s">
         <v>39</v>
       </c>
@@ -10805,87 +10785,87 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="17" t="str">
-        <f>Currency&amp;"ON"&amp;D43&amp;"D"&amp;"="</f>
+        <f t="shared" si="15"/>
         <v>AUDON30YD=</v>
       </c>
       <c r="K43" s="18">
         <f>'ON Pricing'!H43*100</f>
-        <v>4.150000000000527</v>
+        <v>3.5349999999995148</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="14"/>
-        <v>4.150000000000527</v>
+        <f t="shared" si="16"/>
+        <v>3.5349999999995148</v>
       </c>
       <c r="M43" s="138" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>AUD1M30Y=</v>
       </c>
       <c r="N43" s="139">
         <f>'1M Pricing'!H43*100</f>
-        <v>4.2562987902059195</v>
+        <v>3.6079739530426895</v>
       </c>
       <c r="O43" s="139">
-        <f t="shared" si="16"/>
-        <v>4.2562987902059195</v>
+        <f t="shared" si="18"/>
+        <v>3.6079739530426895</v>
       </c>
       <c r="P43" s="17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>AUD3M30Y=</v>
       </c>
       <c r="Q43" s="18">
         <f>'3M Pricing'!H43*100</f>
-        <v>4.3711146242034733</v>
+        <v>3.6874075997212303</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" si="18"/>
-        <v>4.3711146242034733</v>
+        <f t="shared" si="20"/>
+        <v>3.6874075997212303</v>
       </c>
       <c r="S43" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>AUD6M30Y=</v>
       </c>
       <c r="T43" s="18">
         <f>'6M Pricing'!H43*100</f>
-        <v>4.4374999999901164</v>
+        <v>3.7499999999999991</v>
       </c>
       <c r="U43" s="18">
-        <f t="shared" si="20"/>
-        <v>4.4374999999901164</v>
+        <f t="shared" si="22"/>
+        <v>3.7499999999999991</v>
       </c>
       <c r="V43" s="98" t="s">
         <v>70</v>
       </c>
       <c r="W43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,BID)-K43)</f>
-        <v>5.2668980288217426E-13</v>
+        <v>4.8538950636611844E-13</v>
       </c>
       <c r="X43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,ASK)-L43)</f>
-        <v>5.2668980288217426E-13</v>
+        <v>4.8538950636611844E-13</v>
       </c>
       <c r="Y43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,BID)-N43)</f>
-        <v>2.0591972571537553E-10</v>
+        <v>1.1957310697141565E-8</v>
       </c>
       <c r="Z43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,ASK)-O43)</f>
-        <v>2.0591972571537553E-10</v>
+        <v>1.1957310697141565E-8</v>
       </c>
       <c r="AA43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,BID)-Q43)</f>
-        <v>2.0347368234752139E-10</v>
+        <v>1.5278769804893955E-8</v>
       </c>
       <c r="AB43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,ASK)-R43)</f>
-        <v>2.0347368234752139E-10</v>
+        <v>1.5278769804893955E-8</v>
       </c>
       <c r="AC43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>9.8836494544229936E-12</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="AD43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>9.8836494544229936E-12</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="AE43" s="41" t="s">
         <v>70</v>
@@ -14624,19 +14604,19 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>2.500401157774057E-2</v>
+        <v>2.0001511019915874E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!J6</f>
@@ -14672,19 +14652,19 @@
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>2.5003249324340171E-2</v>
+        <v>2.0001111196568111E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!J7</f>
@@ -14718,19 +14698,19 @@
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.5003249324340171E-2</v>
+        <v>2.0001111196568111E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!J8</f>
@@ -14765,26 +14745,23 @@
       <c r="A9" s="91"/>
       <c r="B9" s="91"/>
       <c r="C9" s="21" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="48">
-        <f t="shared" ref="E9:E43" si="1">EvaluationDate</f>
-        <v>41905</v>
-      </c>
+      <c r="E9" s="48"/>
       <c r="F9" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L9,E9)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L9)</f>
+        <v>42137</v>
       </c>
       <c r="G9" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L9,F9)</f>
-        <v>41913</v>
+        <f>_xll.qlSwapMaturityDate(L9)</f>
+        <v>42144</v>
       </c>
       <c r="H9" s="47">
-        <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.4999999998865489E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRatesTrigger)</f>
+        <v>2.0000000031379996E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!J9</f>
@@ -14792,12 +14769,12 @@
       </c>
       <c r="J9" s="38" t="str">
         <f>Currency&amp;C9&amp;"OIS=ICAA"</f>
-        <v>AUDSWOIS=ICAA</v>
+        <v>AUD1WOIS=ICAA</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C9="SW","1W",C9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005c0#0000</v>
+        <f>_xll.qlMakeOIS(,1,C9,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_0040a#0001</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -14828,28 +14805,27 @@
       <c r="D10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
+      <c r="E10" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="F10" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L10,E10)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L10)</f>
+        <v>42137</v>
       </c>
       <c r="G10" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L10,F10)</f>
-        <v>41920</v>
+        <f>_xll.qlSwapMaturityDate(L10)</f>
+        <v>42151</v>
       </c>
       <c r="H10" s="47">
-        <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.4989000628130618E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRatesTrigger)</f>
+        <v>1.9994258393913809E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C10="SW","1W",C10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00582#0000</v>
+        <f>_xll.qlMakeOIS(,1,C10,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003c7#0001</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -14874,28 +14850,25 @@
       <c r="D11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E11" s="48"/>
       <c r="F11" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L11,E11)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L11)</f>
+        <v>42137</v>
       </c>
       <c r="G11" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L11,F11)</f>
-        <v>41927</v>
+        <f>_xll.qlSwapMaturityDate(L11)</f>
+        <v>42158</v>
       </c>
       <c r="H11" s="47">
-        <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.4980091933858799E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRatesTrigger)</f>
+        <v>1.9987394110625445E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C11="SW","1W",C11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b3#0000</v>
+        <f>_xll.qlMakeOIS(,1,C11,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00409#0001</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -14920,34 +14893,31 @@
       <c r="D12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E12" s="48"/>
       <c r="F12" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L12,E12)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L12)</f>
+        <v>42137</v>
       </c>
       <c r="G12" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L12,F12)</f>
-        <v>41936</v>
+        <f>_xll.qlSwapMaturityDate(L12)</f>
+        <v>42170</v>
       </c>
       <c r="H12" s="47">
-        <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.4975000002205122E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRatesTrigger)</f>
+        <v>1.9974999995644685E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!J12</f>
         <v>AUDON1MD=</v>
       </c>
       <c r="J12" s="38" t="str">
-        <f t="shared" ref="J12:J17" si="2">Currency&amp;C12&amp;"OIS=ICAA"</f>
+        <f t="shared" ref="J12:J17" si="1">Currency&amp;C12&amp;"OIS=ICAA"</f>
         <v>AUD1MOIS=ICAA</v>
       </c>
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C12="SW","1W",C12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00564#0000</v>
+        <f>_xll.qlMakeOIS(,1,C12,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003ce#0001</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -14972,34 +14942,31 @@
       <c r="D13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E13" s="48"/>
       <c r="F13" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L13,E13)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L13)</f>
+        <v>42137</v>
       </c>
       <c r="G13" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L13,F13)</f>
-        <v>41967</v>
+        <f>_xll.qlSwapMaturityDate(L13)</f>
+        <v>42198</v>
       </c>
       <c r="H13" s="47">
-        <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.4975000004097903E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRatesTrigger)</f>
+        <v>1.9925000002474103E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!J13</f>
         <v>AUDON2MD=</v>
       </c>
       <c r="J13" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>AUD2MOIS=ICAA</v>
       </c>
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C13="SW","1W",C13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <f>_xll.qlMakeOIS(,1,C13,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00406#0001</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -15024,34 +14991,31 @@
       <c r="D14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E14" s="48"/>
       <c r="F14" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L14,E14)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L14)</f>
+        <v>42137</v>
       </c>
       <c r="G14" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L14,F14)</f>
-        <v>41997</v>
+        <f>_xll.qlSwapMaturityDate(L14)</f>
+        <v>42229</v>
       </c>
       <c r="H14" s="47">
-        <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.4960000003375508E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRatesTrigger)</f>
+        <v>1.9825000001864251E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!J14</f>
         <v>AUDON3MD=</v>
       </c>
       <c r="J14" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>AUD3MOIS=ICAA</v>
       </c>
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C14="SW","1W",C14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00586#0000</v>
+        <f>_xll.qlMakeOIS(,1,C14,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00415#0001</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15076,34 +15040,31 @@
       <c r="D15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E15" s="48"/>
       <c r="F15" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L15,E15)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L15)</f>
+        <v>42137</v>
       </c>
       <c r="G15" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L15,F15)</f>
-        <v>42031</v>
+        <f>_xll.qlSwapMaturityDate(L15)</f>
+        <v>42261</v>
       </c>
       <c r="H15" s="47">
-        <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.497500000255751E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRatesTrigger)</f>
+        <v>1.9735000001536808E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!J15</f>
         <v>AUDON4MD=</v>
       </c>
       <c r="J15" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>AUD4MOIS=ICAA</v>
       </c>
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C15="SW","1W",C15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005c6#0000</v>
+        <f>_xll.qlMakeOIS(,1,C15,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003f9#0001</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15128,34 +15089,31 @@
       <c r="D16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E16" s="48"/>
       <c r="F16" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L16,E16)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L16)</f>
+        <v>42137</v>
       </c>
       <c r="G16" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L16,F16)</f>
-        <v>42059</v>
+        <f>_xll.qlSwapMaturityDate(L16)</f>
+        <v>42290</v>
       </c>
       <c r="H16" s="47">
-        <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.4975000001827889E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRatesTrigger)</f>
+        <v>1.963500000111559E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!J16</f>
         <v>AUDON5MD=</v>
       </c>
       <c r="J16" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C16="SW","1W",C16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00590#0000</v>
+        <f>_xll.qlMakeOIS(,1,C16,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003f3#0001</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15180,34 +15138,31 @@
       <c r="D17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E17" s="48"/>
       <c r="F17" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L17,E17)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L17)</f>
+        <v>42137</v>
       </c>
       <c r="G17" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L17,F17)</f>
-        <v>42087</v>
+        <f>_xll.qlSwapMaturityDate(L17)</f>
+        <v>42321</v>
       </c>
       <c r="H17" s="47">
-        <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.5000000001542209E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRatesTrigger)</f>
+        <v>1.9600000000998225E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!J17</f>
         <v>AUDON6MD=</v>
       </c>
       <c r="J17" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>AUD6MOIS=ICAA</v>
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C17="SW","1W",C17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00589#0000</v>
+        <f>_xll.qlMakeOIS(,1,C17,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003cf#0001</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15232,21 +15187,18 @@
       <c r="D18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="49">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E18" s="49"/>
       <c r="F18" s="49">
-        <f>_xll.qlInterestRateIndexValueDate(L18,E18)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L18)</f>
+        <v>42137</v>
       </c>
       <c r="G18" s="49">
-        <f>_xll.qlInterestRateIndexMaturity(L18,F18)</f>
-        <v>42179</v>
+        <f>_xll.qlSwapMaturityDate(L18)</f>
+        <v>42415</v>
       </c>
       <c r="H18" s="50">
-        <f>_xll.qlIndexFixing(L18,E18,TRUE,InterestRatesTrigger)</f>
-        <v>2.5100000000257968E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRatesTrigger)</f>
+        <v>1.9474999999999961E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!J18</f>
@@ -15258,8 +15210,8 @@
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C18="SW","1W",C18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a3#0000</v>
+        <f>_xll.qlMakeOIS(,1,C18,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003ed#0001</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15527,34 +15479,31 @@
       <c r="D28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E28" s="48"/>
       <c r="F28" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L28,E28)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L28)</f>
+        <v>42137</v>
       </c>
       <c r="G28" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L28,F28)</f>
-        <v>42271</v>
+        <f>_xll.qlSwapMaturityDate(L28)</f>
+        <v>42503</v>
       </c>
       <c r="H28" s="47">
-        <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5350000000194575E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRatesTrigger)</f>
+        <v>1.9579999999999945E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!J28</f>
         <v>AUDON1YD=</v>
       </c>
       <c r="J28" s="38" t="str">
-        <f t="shared" ref="J28:J43" si="3">Currency&amp;C28&amp;"MTOIS=ICAA"</f>
+        <f t="shared" ref="J28:J43" si="2">Currency&amp;C28&amp;"MTOIS=ICAA"</f>
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="K28" s="60"/>
       <c r="L28" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C28="SW","1W",C28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0057d#0000</v>
+        <f>_xll.qlMakeOIS(,1,C28,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003db#0001</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -15579,34 +15528,31 @@
       <c r="D29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E29" s="48"/>
       <c r="F29" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L29,E29)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L29)</f>
+        <v>42137</v>
       </c>
       <c r="G29" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L29,F29)</f>
-        <v>42453</v>
+        <f>_xll.qlSwapMaturityDate(L29)</f>
+        <v>42688</v>
       </c>
       <c r="H29" s="47">
-        <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.5652938190301951E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRatesTrigger)</f>
+        <v>1.9999999999999917E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!J29</f>
         <v>AUDON18MD=</v>
       </c>
       <c r="J29" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C29="SW","1W",C29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b9#0000</v>
+        <f>_xll.qlMakeOIS(,1,C29,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003d1#0001</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15631,34 +15577,31 @@
       <c r="D30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E30" s="48"/>
       <c r="F30" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L30,E30)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L30)</f>
+        <v>42137</v>
       </c>
       <c r="G30" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L30,F30)</f>
-        <v>42639</v>
+        <f>_xll.qlSwapMaturityDate(L30)</f>
+        <v>42870</v>
       </c>
       <c r="H30" s="47">
-        <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.630000000009847E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRatesTrigger)</f>
+        <v>2.0799999999999961E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!J30</f>
         <v>AUDON2YD=</v>
       </c>
       <c r="J30" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C30="SW","1W",C30),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a0#0000</v>
+        <f>_xll.qlMakeOIS(,1,C30,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00428#0001</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -15683,34 +15626,31 @@
       <c r="D31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E31" s="48"/>
       <c r="F31" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L31,E31)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L31)</f>
+        <v>42137</v>
       </c>
       <c r="G31" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L31,F31)</f>
-        <v>43003</v>
+        <f>_xll.qlSwapMaturityDate(L31)</f>
+        <v>43234</v>
       </c>
       <c r="H31" s="47">
-        <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.7800000000067538E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRatesTrigger)</f>
+        <v>2.240000000000001E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!J31</f>
         <v>AUDON3YD=</v>
       </c>
       <c r="J31" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C31="SW","1W",C31),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00566#0000</v>
+        <f>_xll.qlMakeOIS(,1,C31,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003e2#0001</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -15735,34 +15675,31 @@
       <c r="D32" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E32" s="48"/>
       <c r="F32" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L32,E32)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L32)</f>
+        <v>42137</v>
       </c>
       <c r="G32" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L32,F32)</f>
-        <v>43367</v>
+        <f>_xll.qlSwapMaturityDate(L32)</f>
+        <v>43598</v>
       </c>
       <c r="H32" s="47">
-        <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.9380000000050765E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRatesTrigger)</f>
+        <v>2.3899999999736559E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!J32</f>
         <v>AUDON4YD=</v>
       </c>
       <c r="J32" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C32="SW","1W",C32),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0057c#0000</v>
+        <f>_xll.qlMakeOIS(,1,C32,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003c3#0001</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -15787,34 +15724,31 @@
       <c r="D33" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E33" s="48"/>
       <c r="F33" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L33,E33)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L33)</f>
+        <v>42137</v>
       </c>
       <c r="G33" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L33,F33)</f>
-        <v>43732</v>
+        <f>_xll.qlSwapMaturityDate(L33)</f>
+        <v>43964</v>
       </c>
       <c r="H33" s="47">
-        <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.0899999999832999E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRatesTrigger)</f>
+        <v>2.5429999999836739E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!J33</f>
         <v>AUDON5YD=</v>
       </c>
       <c r="J33" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C33="SW","1W",C33),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058b#0000</v>
+        <f>_xll.qlMakeOIS(,1,C33,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00425#0001</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -15839,34 +15773,31 @@
       <c r="D34" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E34" s="48"/>
       <c r="F34" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L34,E34)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L34)</f>
+        <v>42137</v>
       </c>
       <c r="G34" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L34,F34)</f>
-        <v>44098</v>
+        <f>_xll.qlSwapMaturityDate(L34)</f>
+        <v>44329</v>
       </c>
       <c r="H34" s="47">
-        <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.2129999999896283E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRatesTrigger)</f>
+        <v>2.6779999999891391E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!J34</f>
         <v>AUDON6YD=</v>
       </c>
       <c r="J34" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C34="SW","1W",C34),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058f#0000</v>
+        <f>_xll.qlMakeOIS(,1,C34,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003ff#0001</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -15891,34 +15822,31 @@
       <c r="D35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E35" s="48"/>
       <c r="F35" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L35,E35)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L35)</f>
+        <v>42137</v>
       </c>
       <c r="G35" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L35,F35)</f>
-        <v>44463</v>
+        <f>_xll.qlSwapMaturityDate(L35)</f>
+        <v>44694</v>
       </c>
       <c r="H35" s="47">
-        <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.3349999999933565E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRatesTrigger)</f>
+        <v>2.8129999999923778E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!J35</f>
         <v>AUDON7YD=</v>
       </c>
       <c r="J35" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C35="SW","1W",C35),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00563#0000</v>
+        <f>_xll.qlMakeOIS(,1,C35,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003cd#0001</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -15943,34 +15871,31 @@
       <c r="D36" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E36" s="48"/>
       <c r="F36" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L36,E36)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L36)</f>
+        <v>42137</v>
       </c>
       <c r="G36" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L36,F36)</f>
-        <v>44830</v>
+        <f>_xll.qlSwapMaturityDate(L36)</f>
+        <v>45061</v>
       </c>
       <c r="H36" s="47">
-        <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.4199999999955988E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRatesTrigger)</f>
+        <v>2.9079999999944001E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!J36</f>
         <v>AUDON8YD=</v>
       </c>
       <c r="J36" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C36="SW","1W",C36),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a7#0000</v>
+        <f>_xll.qlMakeOIS(,1,C36,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_0041c#0001</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -15995,34 +15920,31 @@
       <c r="D37" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E37" s="48"/>
       <c r="F37" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L37,E37)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L37)</f>
+        <v>42137</v>
       </c>
       <c r="G37" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L37,F37)</f>
-        <v>45194</v>
+        <f>_xll.qlSwapMaturityDate(L37)</f>
+        <v>45425</v>
       </c>
       <c r="H37" s="47">
-        <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.5029999999971542E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRatesTrigger)</f>
+        <v>2.9999999999958161E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!J37</f>
         <v>AUDON9YD=</v>
       </c>
       <c r="J37" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C37="SW","1W",C37),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a6#0000</v>
+        <f>_xll.qlMakeOIS(,1,C37,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003dc#0001</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -16047,34 +15969,31 @@
       <c r="D38" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E38" s="48"/>
       <c r="F38" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L38,E38)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L38)</f>
+        <v>42137</v>
       </c>
       <c r="G38" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L38,F38)</f>
-        <v>45559</v>
+        <f>_xll.qlSwapMaturityDate(L38)</f>
+        <v>45790</v>
       </c>
       <c r="H38" s="47">
-        <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.5879999999981822E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRatesTrigger)</f>
+        <v>3.0949999999967875E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!J38</f>
         <v>AUDON10YD=</v>
       </c>
       <c r="J38" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C38="SW","1W",C38),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005bf#0000</v>
+        <f>_xll.qlMakeOIS(,1,C38,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003ca#0001</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16099,34 +16018,31 @@
       <c r="D39" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E39" s="48"/>
       <c r="F39" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L39,E39)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L39)</f>
+        <v>42137</v>
       </c>
       <c r="G39" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L39,F39)</f>
-        <v>46289</v>
+        <f>_xll.qlSwapMaturityDate(L39)</f>
+        <v>46520</v>
       </c>
       <c r="H39" s="47">
-        <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.7249999999987696E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRatesTrigger)</f>
+        <v>3.2380000000007146E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!J39</f>
         <v>AUDON12YD=</v>
       </c>
       <c r="J39" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C39="SW","1W",C39),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00579#0000</v>
+        <f>_xll.qlMakeOIS(,1,C39,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003e5#0001</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16151,34 +16067,31 @@
       <c r="D40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E40" s="48"/>
       <c r="F40" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L40,E40)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L40)</f>
+        <v>42137</v>
       </c>
       <c r="G40" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L40,F40)</f>
-        <v>47385</v>
+        <f>_xll.qlSwapMaturityDate(L40)</f>
+        <v>47616</v>
       </c>
       <c r="H40" s="47">
-        <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.8849999999999989E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L40,InterestRatesTrigger)</f>
+        <v>3.3800000000001273E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!J40</f>
         <v>AUDON15YD=</v>
       </c>
       <c r="J40" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C40="SW","1W",C40),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00577#0000</v>
+        <f>_xll.qlMakeOIS(,1,C40,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_00423#0001</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16203,34 +16116,31 @@
       <c r="D41" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E41" s="48"/>
       <c r="F41" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L41,E41)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L41)</f>
+        <v>42137</v>
       </c>
       <c r="G41" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L41,F41)</f>
-        <v>49212</v>
+        <f>_xll.qlSwapMaturityDate(L41)</f>
+        <v>49443</v>
       </c>
       <c r="H41" s="47">
-        <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.0650000000058209E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L41,InterestRatesTrigger)</f>
+        <v>3.479999999999811E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!J41</f>
         <v>AUDON20YD=</v>
       </c>
       <c r="J41" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C41="SW","1W",C41),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <f>_xll.qlMakeOIS(,1,C41,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003e7#0001</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16255,34 +16165,31 @@
       <c r="D42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E42" s="48"/>
       <c r="F42" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L42,E42)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L42)</f>
+        <v>42137</v>
       </c>
       <c r="G42" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L42,F42)</f>
-        <v>51039</v>
+        <f>_xll.qlSwapMaturityDate(L42)</f>
+        <v>51270</v>
       </c>
       <c r="H42" s="47">
-        <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.1200000000056379E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L42,InterestRatesTrigger)</f>
+        <v>3.5179999999962505E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!J42</f>
         <v>AUDON25YD=</v>
       </c>
       <c r="J42" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C42="SW","1W",C42),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b7#0000</v>
+        <f>_xll.qlMakeOIS(,1,C42,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003ec#0001</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16307,34 +16214,31 @@
       <c r="D43" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="48">
-        <f t="shared" si="1"/>
-        <v>41905</v>
-      </c>
+      <c r="E43" s="48"/>
       <c r="F43" s="48">
-        <f>_xll.qlInterestRateIndexValueDate(L43,E43)</f>
-        <v>41906</v>
+        <f>_xll.qlSwapStartDate(L43)</f>
+        <v>42137</v>
       </c>
       <c r="G43" s="48">
-        <f>_xll.qlInterestRateIndexMaturity(L43,F43)</f>
-        <v>52866</v>
+        <f>_xll.qlSwapMaturityDate(L43)</f>
+        <v>53097</v>
       </c>
       <c r="H43" s="47">
-        <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.1500000000005269E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(L43,InterestRatesTrigger)</f>
+        <v>3.5349999999995149E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!J43</f>
         <v>AUDON30YD=</v>
       </c>
       <c r="J43" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="K43" s="60"/>
       <c r="L43" s="31" t="str">
-        <f>_xll.qlSwapIndex(,"Aonia",IF(C43="SW","1W",C43),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00588#0000</v>
+        <f>_xll.qlMakeOIS(,1,C43,OvernightIndex,,"0D",FixedLegDayCounter,,,Trigger)</f>
+        <v>obj_003f0#0001</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -18683,19 +18587,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E43" si="1">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.5956907080857759E-2</v>
+        <v>2.1171956381757451E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!M6</f>
@@ -18705,7 +18609,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_005cc#0004</v>
+        <v>obj_0042d#0057</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -18735,19 +18639,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.5956543764969923E-2</v>
+        <v>2.116895001016517E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!M7</f>
@@ -18792,19 +18696,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41908</v>
+        <v>42139</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.5956216182763114E-2</v>
+        <v>2.1165959315332383E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!M8</f>
@@ -18814,7 +18718,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -18850,19 +18754,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41914</v>
+        <v>42145</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.5953000010686358E-2</v>
+        <v>2.1147466459753451E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!M9</f>
@@ -18872,7 +18776,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00580#0000</v>
+        <v>obj_003dd#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -18902,19 +18806,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41921</v>
+        <v>42152</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.5944000004588359E-2</v>
+        <v>2.1123361943430737E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!M10</f>
@@ -18924,7 +18828,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0056e#0000</v>
+        <v>obj_003f6#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -18954,19 +18858,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41928</v>
+        <v>42159</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.5938999999957874E-2</v>
+        <v>2.1099528839829261E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!M11</f>
@@ -18976,7 +18880,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00578#0000</v>
+        <v>obj_00417#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -19006,19 +18910,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41939</v>
+        <v>42170</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.5938999991624578E-2</v>
+        <v>2.1060524321801742E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!M12</f>
@@ -19028,7 +18932,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005ac#0000</v>
+        <v>obj_003f8#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19387,19 +19291,19 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41997</v>
+        <v>42229</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.5891239210207768E-2</v>
+        <v>2.0767819881046132E-2</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>Contribution!M25</f>
@@ -19409,7 +19313,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00568#0000</v>
+        <v>obj_003fb#0000</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="87" t="s">
@@ -19442,19 +19346,19 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42087</v>
+        <v>42321</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.5877142129941275E-2</v>
+        <v>2.0401012997033108E-2</v>
       </c>
       <c r="I26" s="38" t="str">
         <f>Contribution!M26</f>
@@ -19464,7 +19368,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a5#0000</v>
+        <v>obj_00404#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -19491,19 +19395,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42179</v>
+        <v>42415</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.5910145780885737E-2</v>
+        <v>2.0264170042589041E-2</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!M27</f>
@@ -19513,7 +19417,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00574#0000</v>
+        <v>obj_0040c#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19540,19 +19444,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42271</v>
+        <v>42503</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.6193883086106286E-2</v>
+        <v>2.0265298354323634E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!M28</f>
@@ -19562,7 +19466,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059f#0000</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19589,26 +19493,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42453</v>
+        <v>42688</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.6681857745274321E-2</v>
+        <v>2.0769991064379198E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00560#0000</v>
+        <v>obj_003f1#0000</v>
       </c>
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
@@ -19635,19 +19539,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42639</v>
+        <v>42870</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.7238859882185471E-2</v>
+        <v>2.1523433942296392E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!M30</f>
@@ -19657,7 +19561,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00565#0000</v>
+        <v>obj_0040b#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -19684,19 +19588,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43003</v>
+        <v>43234</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>2.8731961004615468E-2</v>
+        <v>2.3130219083190115E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!M31</f>
@@ -19706,7 +19610,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059e#0000</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -19733,19 +19637,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43367</v>
+        <v>43598</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>3.0318673375193957E-2</v>
+        <v>2.4681980815037929E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!M32</f>
@@ -19755,7 +19659,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a1#0000</v>
+        <v>obj_003e4#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -19782,19 +19686,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43732</v>
+        <v>43964</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>3.1811557065218515E-2</v>
+        <v>2.6228406503368582E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!M33</f>
@@ -19804,7 +19708,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a4#0000</v>
+        <v>obj_003df#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -19831,26 +19735,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44098</v>
+        <v>44329</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>3.3138158934779963E-2</v>
+        <v>2.7654956759846402E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b8#0000</v>
+        <v>obj_003e0#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -19877,19 +19781,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44463</v>
+        <v>44694</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>3.4277753270347711E-2</v>
+        <v>2.8898336937756567E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!M35</f>
@@ -19899,7 +19803,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b5#0000</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -19926,26 +19830,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44830</v>
+        <v>45061</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>3.525344968502158E-2</v>
+        <v>2.995907987286945E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c3#0000</v>
+        <v>obj_0040e#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -19972,26 +19876,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45194</v>
+        <v>45425</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.6107121176043831E-2</v>
+        <v>3.0875692697551874E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059d#0000</v>
+        <v>obj_00427#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -20018,19 +19922,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45559</v>
+        <v>45790</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.6890095208720851E-2</v>
+        <v>3.1701347625361503E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!M38</f>
@@ -20040,7 +19944,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bb#0000</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -20067,19 +19971,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46289</v>
+        <v>46520</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>3.8281239098081218E-2</v>
+        <v>3.3120358676594332E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!M39</f>
@@ -20089,7 +19993,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057b#0000</v>
+        <v>obj_003f4#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20116,19 +20020,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47385</v>
+        <v>47616</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>3.9893551566755441E-2</v>
+        <v>3.4538601927584303E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!M40</f>
@@ -20138,7 +20042,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00562#0000</v>
+        <v>obj_003ef#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20165,19 +20069,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49212</v>
+        <v>49443</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>4.1689271416802634E-2</v>
+        <v>3.5512351522428195E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!M41</f>
@@ -20187,7 +20091,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0055e#0000</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20214,19 +20118,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51039</v>
+        <v>51270</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>4.2255079750885632E-2</v>
+        <v>3.5906988798055858E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!M42</f>
@@ -20236,7 +20140,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00576#0000</v>
+        <v>obj_00418#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20263,19 +20167,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52866</v>
+        <v>53097</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>4.2562987902059195E-2</v>
+        <v>3.6079739530426896E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!M43</f>
@@ -20285,7 +20189,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b6#0000</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -23034,19 +22938,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6210371948350006E-2</v>
+        <v>2.2026937443966985E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!P6</f>
@@ -23056,7 +22960,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_005ca#0004</v>
+        <v>obj_0042a#0059</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -23086,19 +22990,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6211097942790952E-2</v>
+        <v>2.2026637818537739E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!P7</f>
@@ -23143,19 +23047,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41908</v>
+        <v>42139</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6211830361804189E-2</v>
+        <v>2.2026357777602534E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!P8</f>
@@ -23165,7 +23069,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00572#0000</v>
+        <v>obj_003de#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23201,19 +23105,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41914</v>
+        <v>42145</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.6216000015853523E-2</v>
+        <v>2.2023992074699912E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!P9</f>
@@ -23223,7 +23127,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005a2#0000</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23253,19 +23157,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41921</v>
+        <v>42152</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6220000002570614E-2</v>
+        <v>2.2017818903544466E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!P10</f>
@@ -23275,7 +23179,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0056f#0000</v>
+        <v>obj_00410#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23305,19 +23209,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41928</v>
+        <v>42159</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.6226000000067341E-2</v>
+        <v>2.2011223633656232E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!P11</f>
@@ -23327,7 +23231,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0058d#0000</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23357,19 +23261,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41939</v>
+        <v>42170</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.6245000002434911E-2</v>
+        <v>2.1999838624744035E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!P12</f>
@@ -23379,7 +23283,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005c5#0000</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23409,19 +23313,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41968</v>
+        <v>42199</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.6303000003439703E-2</v>
+        <v>2.1947102717034796E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!P13</f>
@@ -23431,7 +23335,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_003fa#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23451,7 +23355,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -23461,19 +23365,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42002</v>
+        <v>42230</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.6354000002611178E-2</v>
+        <v>2.1847511478243424E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!P14</f>
@@ -23483,7 +23387,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005b1#0000</v>
+        <v>obj_0041a#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23612,34 +23516,34 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="str">
         <f>Contribution!D19</f>
-        <v>Z4</v>
+        <v>M5</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="45">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F19)</f>
-        <v>41990</v>
+        <v>42167</v>
       </c>
       <c r="F19" s="45">
-        <f>_xll.qlIMMdate(C19)</f>
-        <v>41990</v>
+        <f>_xll.qlASXdate(C19)</f>
+        <v>42167</v>
       </c>
       <c r="G19" s="45">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
-        <v>42080</v>
+        <v>42261</v>
       </c>
       <c r="H19" s="110">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.345000000197544</v>
+        <v>97.835000000069556</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!P19</f>
-        <v>AUD3MZ4</v>
+        <v>AUD3MM5</v>
       </c>
       <c r="J19" s="39" t="str">
         <f>"YBA"&amp;C19</f>
-        <v>YBAZ4</v>
+        <v>YBAM5</v>
       </c>
       <c r="K19" s="57"/>
       <c r="L19" s="91"/>
@@ -23662,34 +23566,34 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="str">
         <f>Contribution!D20</f>
-        <v>H5</v>
+        <v>U5</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F20)</f>
-        <v>42081</v>
+        <v>42258</v>
       </c>
       <c r="F20" s="48">
-        <f>_xll.qlIMMdate(C20)</f>
-        <v>42081</v>
+        <f>_xll.qlASXdate(C20)</f>
+        <v>42258</v>
       </c>
       <c r="G20" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
-        <v>42173</v>
+        <v>42349</v>
       </c>
       <c r="H20" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.315000000238356</v>
+        <v>97.880000000223305</v>
       </c>
       <c r="I20" s="38" t="str">
         <f>Contribution!P20</f>
-        <v>AUD3MH5</v>
+        <v>AUD3MU5</v>
       </c>
       <c r="J20" s="38" t="str">
         <f t="shared" ref="J20:J24" si="2">"YBA"&amp;C20</f>
-        <v>YBAH5</v>
+        <v>YBAU5</v>
       </c>
       <c r="K20" s="91"/>
       <c r="L20" s="91"/>
@@ -23712,34 +23616,34 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="str">
         <f>Contribution!D21</f>
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E21" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F21)</f>
-        <v>42172</v>
+        <v>42349</v>
       </c>
       <c r="F21" s="48">
-        <f>_xll.qlIMMdate(C21)</f>
-        <v>42172</v>
+        <f>_xll.qlASXdate(C21)</f>
+        <v>42349</v>
       </c>
       <c r="G21" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
-        <v>42264</v>
+        <v>42440</v>
       </c>
       <c r="H21" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.226698256193131</v>
+        <v>97.874999999999957</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!P21</f>
-        <v>AUD3MM5</v>
+        <v>AUD3MZ5</v>
       </c>
       <c r="J21" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAM5</v>
+        <v>YBAZ5</v>
       </c>
       <c r="K21" s="91"/>
       <c r="L21" s="91"/>
@@ -23762,34 +23666,34 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="str">
         <f>Contribution!D22</f>
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F22)</f>
-        <v>42263</v>
+        <v>42440</v>
       </c>
       <c r="F22" s="48">
-        <f>_xll.qlIMMdate(C22)</f>
-        <v>42263</v>
+        <f>_xll.qlASXdate(C22)</f>
+        <v>42440</v>
       </c>
       <c r="G22" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
-        <v>42354</v>
+        <v>42535</v>
       </c>
       <c r="H22" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.172385893332617</v>
+        <v>97.833655104418995</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!P22</f>
-        <v>AUD3MU5</v>
+        <v>AUD3MH6</v>
       </c>
       <c r="J22" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAU5</v>
+        <v>YBAH6</v>
       </c>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -23812,34 +23716,34 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="str">
         <f>Contribution!D23</f>
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="48">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F23)</f>
-        <v>42354</v>
+        <v>42531</v>
       </c>
       <c r="F23" s="48">
-        <f>_xll.qlIMMdate(C23)</f>
-        <v>42354</v>
+        <f>_xll.qlASXdate(C23)</f>
+        <v>42531</v>
       </c>
       <c r="G23" s="48">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
-        <v>42445</v>
+        <v>42625</v>
       </c>
       <c r="H23" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.121840874458982</v>
+        <v>97.737337286937702</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!P23</f>
-        <v>AUD3MZ5</v>
+        <v>AUD3MM6</v>
       </c>
       <c r="J23" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>YBAZ5</v>
+        <v>YBAM6</v>
       </c>
       <c r="K23" s="91"/>
       <c r="L23" s="91"/>
@@ -23862,34 +23766,34 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="str">
         <f>Contribution!D24</f>
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="49">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F24)</f>
-        <v>42445</v>
+        <v>42622</v>
       </c>
       <c r="F24" s="49">
-        <f>_xll.qlIMMdate(C24)</f>
-        <v>42445</v>
+        <f>_xll.qlASXdate(C24)</f>
+        <v>42622</v>
       </c>
       <c r="G24" s="49">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
-        <v>42537</v>
+        <v>42713</v>
       </c>
       <c r="H24" s="112">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.054287886406939</v>
+        <v>97.639755173888304</v>
       </c>
       <c r="I24" s="40" t="str">
         <f>Contribution!P24</f>
-        <v>AUD3MH6</v>
+        <v>AUD3MU6</v>
       </c>
       <c r="J24" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>YBAH6</v>
+        <v>YBAU6</v>
       </c>
       <c r="K24" s="91"/>
       <c r="L24" s="90" t="s">
@@ -23926,26 +23830,26 @@
       </c>
       <c r="E25" s="45">
         <f>EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41997</v>
+        <v>42229</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.6345585116535536E-2</v>
+        <v>2.1853780555942632E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="91"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_0056a#0000</v>
+        <v>obj_003fe#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="30" t="s">
@@ -23978,26 +23882,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" ref="E26:E27" si="3">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42087</v>
+        <v>42321</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.6456279530127375E-2</v>
+        <v>2.1573637204896572E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="57"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005aa#0000</v>
+        <v>obj_00421#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="58"/>
@@ -24024,26 +23928,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="3"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42179</v>
+        <v>42415</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.660254217096129E-2</v>
+        <v>2.1449088829674837E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="91"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005af#0000</v>
+        <v>obj_00429#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="91"/>
@@ -24070,19 +23974,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42271</v>
+        <v>42503</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.6900000000000129E-2</v>
+        <v>2.1449999999721938E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!P28</f>
@@ -24095,7 +23999,7 @@
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00585#0000</v>
+        <v>obj_00420#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -24122,26 +24026,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42453</v>
+        <v>42688</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.7449582861863039E-2</v>
+        <v>2.1903110671669605E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_00419#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24168,19 +24072,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="5">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42639</v>
+        <v>42870</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.8074999999954421E-2</v>
+        <v>2.259999999971183E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!P30</f>
@@ -24193,7 +24097,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00573#0000</v>
+        <v>obj_003f2#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24220,19 +24124,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43003</v>
+        <v>43234</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.9625000000164634E-2</v>
+        <v>2.4124999999965088E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!P31</f>
@@ -24245,7 +24149,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c1#0000</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24272,19 +24176,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43367</v>
+        <v>43598</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.1281951613233654E-2</v>
+        <v>2.5620130101907057E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!P32</f>
@@ -24294,7 +24198,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bd#0000</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24321,19 +24225,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43732</v>
+        <v>43964</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.282005220094357E-2</v>
+        <v>2.7110410622996031E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!P33</f>
@@ -24343,7 +24247,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_003e8#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24370,26 +24274,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44098</v>
+        <v>44329</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.4165883861333859E-2</v>
+        <v>2.8497423214145452E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c2#0000</v>
+        <v>obj_003cc#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24416,19 +24320,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44463</v>
+        <v>44694</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.5312053773827776E-2</v>
+        <v>2.9717299436776815E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!P35</f>
@@ -24438,7 +24342,7 @@
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0058c#0000</v>
+        <v>obj_00416#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24465,26 +24369,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44830</v>
+        <v>45061</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.6291200661658772E-2</v>
+        <v>3.076109241153031E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ab#0000</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24511,26 +24415,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45194</v>
+        <v>45425</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.7152316597339564E-2</v>
+        <v>3.166579597260278E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_00412#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24557,19 +24461,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45559</v>
+        <v>45790</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.7951823332616721E-2</v>
+        <v>3.2484107479366378E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!P38</f>
@@ -24579,7 +24483,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bc#0000</v>
+        <v>obj_0041f#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24606,19 +24510,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46289</v>
+        <v>46520</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.9388977810415157E-2</v>
+        <v>3.3898081511269662E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!P39</f>
@@ -24628,7 +24532,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a9#0000</v>
+        <v>obj_00403#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -24655,19 +24559,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47385</v>
+        <v>47616</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>4.1011476474981781E-2</v>
+        <v>3.5324118173613812E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!P40</f>
@@ -24677,7 +24581,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00571#0000</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -24704,19 +24608,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49212</v>
+        <v>49443</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.2831597175156062E-2</v>
+        <v>3.6303461428665987E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!P41</f>
@@ -24726,7 +24630,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_00424#0000</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -24753,19 +24657,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51039</v>
+        <v>51270</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.341370376230224E-2</v>
+        <v>3.6700333068239416E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!P42</f>
@@ -24775,7 +24679,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0055f#0000</v>
+        <v>obj_00400#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -24802,19 +24706,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="5"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52866</v>
+        <v>53097</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.3711146242034732E-2</v>
+        <v>3.6874075997212305E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!P43</f>
@@ -24824,7 +24728,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00591#0000</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -27098,19 +27002,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6771601653011255E-2</v>
+        <v>2.2565312915547673E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!S6</f>
@@ -27120,7 +27024,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_005cb#0004</v>
+        <v>obj_0042e#0057</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27150,19 +27054,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6772074665179349E-2</v>
+        <v>2.2566096923109909E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!S7</f>
@@ -27207,19 +27111,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41908</v>
+        <v>42139</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.6772561454367905E-2</v>
+        <v>2.2566897999798385E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!S8</f>
@@ -27229,7 +27133,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0057e#0000</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27265,19 +27169,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41914</v>
+        <v>42145</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.677499999378306E-2</v>
+        <v>2.2571107040510859E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -27287,7 +27191,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00570#0000</v>
+        <v>obj_0041e#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27317,19 +27221,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41921</v>
+        <v>42152</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.6775999988314605E-2</v>
+        <v>2.2572777614852657E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!S10</f>
@@ -27339,7 +27243,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0056d#0000</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27369,19 +27273,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41928</v>
+        <v>42159</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.6780000000076926E-2</v>
+        <v>2.2573240168286123E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!S11</f>
@@ -27391,7 +27295,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005ad#0000</v>
+        <v>obj_00411#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27421,19 +27325,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41939</v>
+        <v>42170</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.6796000003800578E-2</v>
+        <v>2.257425255903639E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -27443,7 +27347,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_003fc#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27473,19 +27377,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41968</v>
+        <v>42199</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,AllTriggers)</f>
-        <v>2.6847000005392634E-2</v>
+        <v>2.2551986181245223E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -27495,7 +27399,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00569#0000</v>
+        <v>obj_00408#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27515,7 +27419,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -27525,19 +27429,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42002</v>
+        <v>42230</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,AllTriggers)</f>
-        <v>2.6894999999999683E-2</v>
+        <v>2.2485219814407483E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -27547,7 +27451,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27567,7 +27471,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27577,19 +27481,19 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
-        <v>42031</v>
+        <v>42261</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,AllTriggers)</f>
-        <v>2.6960000002661487E-2</v>
+        <v>2.2431109450210387E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -27599,7 +27503,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00575#0000</v>
+        <v>obj_00407#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27629,19 +27533,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42060</v>
+        <v>42291</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,AllTriggers)</f>
-        <v>2.7012000002161089E-2</v>
+        <v>2.2362350105273397E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -27651,7 +27555,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005ba#0000</v>
+        <v>obj_00414#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -27671,7 +27575,7 @@
       <c r="A17" s="91"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>14</v>
@@ -27681,19 +27585,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>41907</v>
+        <v>42138</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42088</v>
+        <v>42324</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,AllTriggers)</f>
-        <v>2.7087000001765428E-2</v>
+        <v>2.2363324900027806E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -27703,7 +27607,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00587#0000</v>
+        <v>obj_00401#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -27927,26 +27831,26 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41997</v>
+        <v>42229</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.6886152471083766E-2</v>
+        <v>2.2489114161497365E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
       <c r="L25" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b4#0000</v>
+        <v>obj_003e6#0000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="87" t="s">
@@ -27979,26 +27883,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="2"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42087</v>
+        <v>42321</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.7084187358995641E-2</v>
+        <v>2.2364865594942624E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0056c#0000</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -28025,26 +27929,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42179</v>
+        <v>42415</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.7295061496680113E-2</v>
+        <v>2.2316105253620939E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_003fd#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -28071,19 +27975,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="3">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42271</v>
+        <v>42503</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.7604410492454091E-2</v>
+        <v>2.2420987069177566E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!S28</f>
@@ -28093,7 +27997,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057f#0000</v>
+        <v>obj_00405#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="57"/>
@@ -28120,26 +28024,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="3"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42453</v>
+        <v>42688</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.8180862758971754E-2</v>
+        <v>2.3000936065354177E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a8#0000</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28166,19 +28070,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="4">EvaluationDate</f>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42639</v>
+        <v>42870</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.8872386160509775E-2</v>
+        <v>2.3737672332174942E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!S30</f>
@@ -28188,7 +28092,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00567#0000</v>
+        <v>obj_00413#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28215,19 +28119,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>43003</v>
+        <v>43234</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>3.0508979250689485E-2</v>
+        <v>2.5222678067579451E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -28237,7 +28141,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00584#0000</v>
+        <v>obj_003e9#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28264,19 +28168,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43367</v>
+        <v>43598</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>3.2225000000032561E-2</v>
+        <v>2.670000000000294E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -28289,7 +28193,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0058a#0000</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28316,19 +28220,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43732</v>
+        <v>43964</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>3.3799999999517022E-2</v>
+        <v>2.8175000000002674E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -28341,7 +28245,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00581#0000</v>
+        <v>obj_0040f#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28368,19 +28272,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44098</v>
+        <v>44329</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>3.5175000000005396E-2</v>
+        <v>2.952500000000231E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="str">
@@ -28390,7 +28294,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0058e#0000</v>
+        <v>obj_003f5#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28417,19 +28321,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44463</v>
+        <v>44694</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>3.6350000000177456E-2</v>
+        <v>3.0725000000002015E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!S35</f>
@@ -28442,7 +28346,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_0040d#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28469,19 +28373,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44830</v>
+        <v>45061</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>3.7325000000035503E-2</v>
+        <v>3.1800000000001799E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="str">
@@ -28491,7 +28395,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0056b#0000</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28518,19 +28422,19 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45194</v>
+        <v>45425</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.8199999999918764E-2</v>
+        <v>3.2625000000001347E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28540,7 +28444,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005be#0000</v>
+        <v>obj_0041b#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28567,19 +28471,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45559</v>
+        <v>45790</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.9000000000175339E-2</v>
+        <v>3.3399999999963612E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!S38</f>
@@ -28592,7 +28496,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ae#0000</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28619,19 +28523,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46289</v>
+        <v>46520</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>4.0424999999994021E-2</v>
+        <v>3.4749999999973337E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -28644,7 +28548,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00561#0000</v>
+        <v>obj_00422#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -28671,19 +28575,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47385</v>
+        <v>47616</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>4.1950000000008265E-2</v>
+        <v>3.6100000000001672E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -28696,7 +28600,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b2#0000</v>
+        <v>obj_003f7#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -28723,19 +28627,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49212</v>
+        <v>49443</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>4.3650000000007017E-2</v>
+        <v>3.7024999999975779E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -28748,7 +28652,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00583#0000</v>
+        <v>obj_0041d#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -28775,19 +28679,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51039</v>
+        <v>51270</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>4.4174999999975338E-2</v>
+        <v>3.7374999999978994E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -28800,7 +28704,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b0#0000</v>
+        <v>obj_00402#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -28827,19 +28731,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="4"/>
-        <v>41905</v>
+        <v>42136</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41906</v>
+        <v>42137</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52866</v>
+        <v>53097</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>4.4374999999901167E-2</v>
+        <v>3.7499999999999992E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!S43</f>
@@ -28852,7 +28756,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057a#0000</v>
+        <v>obj_00426#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
